--- a/Grid_5x5/Solutions/Solution_NDP_S014/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S014/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2616,7 +2616,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.3029281248783568</v>
+        <v>0.30292812487835674</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.98964285714285638</v>
+        <v>0.98964285714285749</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2657,7 +2657,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.2015285714285715</v>
+        <v>1.2015285714285713</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8496,7 +8496,7 @@
         <v>54.964000000000013</v>
       </c>
       <c r="M28" s="72">
-        <v>94.826000000000008</v>
+        <v>94.826000000000022</v>
       </c>
       <c r="N28" s="72">
         <v>128.93</v>
@@ -8540,7 +8540,7 @@
         <v>105.24600000000001</v>
       </c>
       <c r="M29" s="72">
-        <v>23.684000000000001</v>
+        <v>23.683999999999997</v>
       </c>
       <c r="N29" s="72">
         <v>162.661</v>
@@ -8625,13 +8625,13 @@
         <v>13.203000000000001</v>
       </c>
       <c r="L31" s="72">
-        <v>102.776</v>
+        <v>102.77600000000001</v>
       </c>
       <c r="M31" s="72">
-        <v>30.15</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="N31" s="72">
-        <v>115.979</v>
+        <v>115.97900000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="72">
-        <v>115.979</v>
+        <v>115.97900000000001</v>
       </c>
       <c r="N32" s="72">
         <v>0</v>
@@ -8833,13 +8833,13 @@
         <v>42.643000000000001</v>
       </c>
       <c r="L36" s="72">
-        <v>105.58599999999998</v>
+        <v>105.58600000000001</v>
       </c>
       <c r="M36" s="72">
         <v>27.128</v>
       </c>
       <c r="N36" s="72">
-        <v>148.22899999999998</v>
+        <v>148.22900000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8874,16 +8874,16 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>68.544000000000011</v>
+        <v>68.543999999999983</v>
       </c>
       <c r="L37" s="72">
-        <v>54.20799999999997</v>
+        <v>54.208000000000027</v>
       </c>
       <c r="M37" s="72">
-        <v>94.021000000000015</v>
+        <v>94.021000000000001</v>
       </c>
       <c r="N37" s="72">
-        <v>122.75199999999998</v>
+        <v>122.75200000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8921,13 +8921,13 @@
         <v>56.633000000000003</v>
       </c>
       <c r="L38" s="72">
-        <v>100.37899999999999</v>
+        <v>100.37899999999996</v>
       </c>
       <c r="M38" s="72">
-        <v>22.373000000000001</v>
+        <v>22.372999999999998</v>
       </c>
       <c r="N38" s="72">
-        <v>157.012</v>
+        <v>157.01199999999997</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -9009,13 +9009,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L40" s="72">
-        <v>99.845999999999989</v>
+        <v>99.846000000000004</v>
       </c>
       <c r="M40" s="72">
-        <v>28.934999999999999</v>
+        <v>28.935000000000002</v>
       </c>
       <c r="N40" s="72">
-        <v>112.62299999999999</v>
+        <v>112.623</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="72">
-        <v>112.62299999999999</v>
+        <v>112.623</v>
       </c>
       <c r="N41" s="72">
         <v>0</v>
@@ -9126,7 +9126,7 @@
         <v>70</v>
       </c>
       <c r="K43" s="72">
-        <v>21.643999999999998</v>
+        <v>21.644000000000002</v>
       </c>
       <c r="L43" s="72">
         <v>87.272999999999996</v>
@@ -9173,13 +9173,13 @@
         <v>29.439</v>
       </c>
       <c r="L44" s="72">
-        <v>102.83300000000003</v>
+        <v>102.83300000000006</v>
       </c>
       <c r="M44" s="72">
         <v>6.0840000000000005</v>
       </c>
       <c r="N44" s="72">
-        <v>132.27200000000002</v>
+        <v>132.27200000000005</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9217,13 +9217,13 @@
         <v>42.328000000000003</v>
       </c>
       <c r="L45" s="72">
-        <v>105.38899999999998</v>
+        <v>105.38900000000001</v>
       </c>
       <c r="M45" s="72">
-        <v>26.883000000000003</v>
+        <v>26.882999999999999</v>
       </c>
       <c r="N45" s="72">
-        <v>147.71699999999998</v>
+        <v>147.71700000000001</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>53.977000000000004</v>
       </c>
       <c r="M46" s="72">
-        <v>93.740000000000009</v>
+        <v>93.739999999999981</v>
       </c>
       <c r="N46" s="72">
         <v>121.548</v>
@@ -9302,16 +9302,16 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>56.183000000000007</v>
+        <v>56.182999999999993</v>
       </c>
       <c r="L47" s="72">
-        <v>99.414999999999978</v>
+        <v>99.41500000000002</v>
       </c>
       <c r="M47" s="72">
-        <v>22.132999999999999</v>
+        <v>22.133000000000003</v>
       </c>
       <c r="N47" s="72">
-        <v>155.59799999999998</v>
+        <v>155.59800000000001</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -9349,13 +9349,13 @@
         <v>10.722000000000001</v>
       </c>
       <c r="L48" s="72">
-        <v>116.73099999999999</v>
+        <v>116.73099999999997</v>
       </c>
       <c r="M48" s="72">
-        <v>38.866999999999997</v>
+        <v>38.867000000000004</v>
       </c>
       <c r="N48" s="72">
-        <v>127.453</v>
+        <v>127.45299999999997</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
         <v>6.8460000000000001</v>
       </c>
       <c r="N52" s="72">
-        <v>108.283</v>
+        <v>108.28300000000002</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9554,16 +9554,16 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>29.015999999999998</v>
+        <v>29.016000000000002</v>
       </c>
       <c r="L53" s="72">
-        <v>102.233</v>
+        <v>102.23300000000002</v>
       </c>
       <c r="M53" s="72">
         <v>6.0500000000000007</v>
       </c>
       <c r="N53" s="72">
-        <v>131.249</v>
+        <v>131.24900000000002</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9598,13 +9598,13 @@
         <v>70</v>
       </c>
       <c r="K54" s="72">
-        <v>41.338000000000008</v>
+        <v>41.337999999999994</v>
       </c>
       <c r="L54" s="72">
-        <v>104.60199999999999</v>
+        <v>104.602</v>
       </c>
       <c r="M54" s="72">
-        <v>26.647000000000002</v>
+        <v>26.646999999999998</v>
       </c>
       <c r="N54" s="72">
         <v>145.94</v>
@@ -14341,13 +14341,13 @@
         <v>2.3609999999999998</v>
       </c>
       <c r="L165" s="72">
-        <v>28.984999999999996</v>
+        <v>28.985000000000003</v>
       </c>
       <c r="M165" s="72">
-        <v>20.299999999999997</v>
+        <v>20.3</v>
       </c>
       <c r="N165" s="72">
-        <v>31.345999999999997</v>
+        <v>31.346000000000004</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -14385,13 +14385,13 @@
         <v>1.8069999999999999</v>
       </c>
       <c r="L166" s="72">
-        <v>17.57</v>
+        <v>17.570000000000004</v>
       </c>
       <c r="M166" s="72">
         <v>13.776</v>
       </c>
       <c r="N166" s="72">
-        <v>19.376999999999999</v>
+        <v>19.377000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="72">
-        <v>19.376999999999999</v>
+        <v>19.377000000000002</v>
       </c>
       <c r="N167" s="72">
         <v>0</v>
@@ -14549,13 +14549,13 @@
         <v>21.29</v>
       </c>
       <c r="L170" s="72">
-        <v>54.134999999999984</v>
+        <v>54.134999999999998</v>
       </c>
       <c r="M170" s="72">
         <v>4.194</v>
       </c>
       <c r="N170" s="72">
-        <v>75.424999999999983</v>
+        <v>75.424999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14590,16 +14590,16 @@
         <v>70</v>
       </c>
       <c r="K171" s="72">
-        <v>30.074999999999999</v>
+        <v>30.075000000000003</v>
       </c>
       <c r="L171" s="72">
-        <v>58.697999999999979</v>
+        <v>58.697999999999993</v>
       </c>
       <c r="M171" s="72">
         <v>16.727</v>
       </c>
       <c r="N171" s="72">
-        <v>88.772999999999982</v>
+        <v>88.772999999999996</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -14634,16 +14634,16 @@
         <v>70</v>
       </c>
       <c r="K172" s="72">
-        <v>27.266000000000002</v>
+        <v>27.265999999999998</v>
       </c>
       <c r="L172" s="72">
-        <v>12.563999999999989</v>
+        <v>12.564</v>
       </c>
       <c r="M172" s="72">
-        <v>76.208999999999989</v>
+        <v>76.209000000000003</v>
       </c>
       <c r="N172" s="72">
-        <v>39.829999999999991</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -14681,13 +14681,13 @@
         <v>18.802</v>
       </c>
       <c r="L173" s="72">
-        <v>26.495999999999988</v>
+        <v>26.496000000000002</v>
       </c>
       <c r="M173" s="72">
         <v>13.334</v>
       </c>
       <c r="N173" s="72">
-        <v>45.297999999999988</v>
+        <v>45.298000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -14728,7 +14728,7 @@
         <v>26.333000000000002</v>
       </c>
       <c r="M174" s="72">
-        <v>18.965000000000003</v>
+        <v>18.965</v>
       </c>
       <c r="N174" s="72">
         <v>28.551000000000002</v>
@@ -14772,7 +14772,7 @@
         <v>15.681000000000001</v>
       </c>
       <c r="M175" s="72">
-        <v>12.87</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="N175" s="72">
         <v>17.356000000000002</v>
@@ -14930,16 +14930,16 @@
         <v>70</v>
       </c>
       <c r="K179" s="72">
-        <v>21.132000000000005</v>
+        <v>21.132000000000001</v>
       </c>
       <c r="L179" s="72">
-        <v>53.448999999999998</v>
+        <v>53.449000000000012</v>
       </c>
       <c r="M179" s="72">
         <v>4.141</v>
       </c>
       <c r="N179" s="72">
-        <v>74.581000000000003</v>
+        <v>74.581000000000017</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -14974,7 +14974,7 @@
         <v>70</v>
       </c>
       <c r="K180" s="72">
-        <v>29.806000000000001</v>
+        <v>29.805999999999997</v>
       </c>
       <c r="L180" s="72">
         <v>58.024000000000015</v>
@@ -15021,13 +15021,13 @@
         <v>26.835999999999999</v>
       </c>
       <c r="L181" s="72">
-        <v>12.458999999999996</v>
+        <v>12.459000000000003</v>
       </c>
       <c r="M181" s="72">
-        <v>75.370999999999995</v>
+        <v>75.371000000000009</v>
       </c>
       <c r="N181" s="72">
-        <v>39.294999999999995</v>
+        <v>39.295000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -15109,13 +15109,13 @@
         <v>2.1870000000000003</v>
       </c>
       <c r="L183" s="72">
-        <v>25.916999999999998</v>
+        <v>25.917000000000002</v>
       </c>
       <c r="M183" s="72">
-        <v>18.736999999999995</v>
+        <v>18.737000000000002</v>
       </c>
       <c r="N183" s="72">
-        <v>28.103999999999999</v>
+        <v>28.104000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -15226,7 +15226,7 @@
         <v>70</v>
       </c>
       <c r="K186" s="72">
-        <v>27.006999999999998</v>
+        <v>27.007000000000001</v>
       </c>
       <c r="L186" s="72">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="72">
-        <v>27.006999999999998</v>
+        <v>27.007000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -15270,10 +15270,10 @@
         <v>70</v>
       </c>
       <c r="K187" s="72">
-        <v>32.993000000000009</v>
+        <v>32.993000000000002</v>
       </c>
       <c r="L187" s="72">
-        <v>24.355999999999995</v>
+        <v>24.356000000000002</v>
       </c>
       <c r="M187" s="72">
         <v>2.6509999999999998</v>
@@ -15317,13 +15317,13 @@
         <v>21.019000000000002</v>
       </c>
       <c r="L188" s="72">
-        <v>53.22399999999999</v>
+        <v>53.224000000000018</v>
       </c>
       <c r="M188" s="72">
         <v>4.125</v>
       </c>
       <c r="N188" s="72">
-        <v>74.242999999999995</v>
+        <v>74.243000000000023</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -15358,16 +15358,16 @@
         <v>70</v>
       </c>
       <c r="K189" s="72">
-        <v>29.564000000000004</v>
+        <v>29.564</v>
       </c>
       <c r="L189" s="72">
-        <v>57.75500000000001</v>
+        <v>57.755000000000003</v>
       </c>
       <c r="M189" s="72">
         <v>16.488</v>
       </c>
       <c r="N189" s="72">
-        <v>87.319000000000017</v>
+        <v>87.319000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -15405,13 +15405,13 @@
         <v>26.697000000000003</v>
       </c>
       <c r="L190" s="72">
-        <v>12.388999999999989</v>
+        <v>12.388999999999996</v>
       </c>
       <c r="M190" s="72">
         <v>74.930000000000007</v>
       </c>
       <c r="N190" s="72">
-        <v>39.085999999999991</v>
+        <v>39.085999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -15446,16 +15446,16 @@
         <v>70</v>
       </c>
       <c r="K191" s="72">
-        <v>18.345999999999997</v>
+        <v>18.346</v>
       </c>
       <c r="L191" s="72">
-        <v>25.973999999999997</v>
+        <v>25.974</v>
       </c>
       <c r="M191" s="72">
         <v>13.112000000000002</v>
       </c>
       <c r="N191" s="72">
-        <v>44.319999999999993</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -15654,10 +15654,10 @@
         <v>70</v>
       </c>
       <c r="K196" s="72">
-        <v>32.348999999999997</v>
+        <v>32.349000000000004</v>
       </c>
       <c r="L196" s="72">
-        <v>24.128000000000007</v>
+        <v>24.128</v>
       </c>
       <c r="M196" s="72">
         <v>2.6259999999999999</v>
@@ -20810,16 +20810,16 @@
         <v>70</v>
       </c>
       <c r="K317" s="72">
-        <v>24.674000000000003</v>
+        <v>24.673999999999999</v>
       </c>
       <c r="L317" s="72">
-        <v>82.786999999999992</v>
+        <v>82.787000000000006</v>
       </c>
       <c r="M317" s="72">
         <v>6.0919999999999996</v>
       </c>
       <c r="N317" s="72">
-        <v>107.461</v>
+        <v>107.46100000000001</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -20857,13 +20857,13 @@
         <v>21.902000000000001</v>
       </c>
       <c r="L318" s="72">
-        <v>80.332999999999998</v>
+        <v>80.332999999999984</v>
       </c>
       <c r="M318" s="72">
         <v>27.128</v>
       </c>
       <c r="N318" s="72">
-        <v>102.235</v>
+        <v>102.23499999999999</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -20904,7 +20904,7 @@
         <v>8.2180000000000035</v>
       </c>
       <c r="M319" s="72">
-        <v>94.01700000000001</v>
+        <v>94.016999999999996</v>
       </c>
       <c r="N319" s="72">
         <v>22.371000000000002</v>
@@ -21018,7 +21018,7 @@
         <v>70</v>
       </c>
       <c r="K322" s="72">
-        <v>77.864999999999995</v>
+        <v>77.864999999999981</v>
       </c>
       <c r="L322" s="72">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="N322" s="72">
-        <v>77.864999999999995</v>
+        <v>77.864999999999981</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -21062,16 +21062,16 @@
         <v>70</v>
       </c>
       <c r="K323" s="72">
-        <v>17.634999999999998</v>
+        <v>17.635000000000002</v>
       </c>
       <c r="L323" s="72">
-        <v>70.985000000000014</v>
+        <v>70.984999999999985</v>
       </c>
       <c r="M323" s="72">
         <v>6.8800000000000008</v>
       </c>
       <c r="N323" s="72">
-        <v>88.62</v>
+        <v>88.61999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -21106,16 +21106,16 @@
         <v>70</v>
       </c>
       <c r="K324" s="72">
-        <v>24.525000000000002</v>
+        <v>24.524999999999999</v>
       </c>
       <c r="L324" s="72">
-        <v>82.535999999999973</v>
+        <v>82.536000000000001</v>
       </c>
       <c r="M324" s="72">
         <v>6.0840000000000005</v>
       </c>
       <c r="N324" s="72">
-        <v>107.06099999999998</v>
+        <v>107.06100000000001</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
@@ -21150,16 +21150,16 @@
         <v>70</v>
       </c>
       <c r="K325" s="72">
-        <v>21.754000000000001</v>
+        <v>21.753999999999998</v>
       </c>
       <c r="L325" s="72">
-        <v>80.177999999999983</v>
+        <v>80.177999999999997</v>
       </c>
       <c r="M325" s="72">
-        <v>26.883000000000003</v>
+        <v>26.882999999999999</v>
       </c>
       <c r="N325" s="72">
-        <v>101.93199999999999</v>
+        <v>101.932</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -21194,16 +21194,16 @@
         <v>70</v>
       </c>
       <c r="K326" s="72">
-        <v>13.939000000000002</v>
+        <v>13.939</v>
       </c>
       <c r="L326" s="72">
-        <v>8.1929999999999961</v>
+        <v>8.1930000000000014</v>
       </c>
       <c r="M326" s="72">
-        <v>93.739000000000004</v>
+        <v>93.73899999999999</v>
       </c>
       <c r="N326" s="72">
-        <v>22.131999999999998</v>
+        <v>22.132000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="M327" s="72">
-        <v>22.131999999999998</v>
+        <v>22.132000000000001</v>
       </c>
       <c r="N327" s="72">
         <v>0</v>
@@ -21358,16 +21358,16 @@
         <v>70</v>
       </c>
       <c r="K330" s="72">
-        <v>17.495000000000001</v>
+        <v>17.495000000000005</v>
       </c>
       <c r="L330" s="72">
-        <v>70.609999999999985</v>
+        <v>70.61</v>
       </c>
       <c r="M330" s="72">
         <v>6.8460000000000001</v>
       </c>
       <c r="N330" s="72">
-        <v>88.10499999999999</v>
+        <v>88.105000000000004</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -21402,16 +21402,16 @@
         <v>70</v>
       </c>
       <c r="K331" s="72">
-        <v>24.175000000000001</v>
+        <v>24.175000000000004</v>
       </c>
       <c r="L331" s="72">
-        <v>82.054999999999993</v>
+        <v>82.055000000000007</v>
       </c>
       <c r="M331" s="72">
         <v>6.0500000000000007</v>
       </c>
       <c r="N331" s="72">
-        <v>106.22999999999999</v>
+        <v>106.23</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -21446,16 +21446,16 @@
         <v>70</v>
       </c>
       <c r="K332" s="72">
-        <v>21.148999999999997</v>
+        <v>21.149000000000001</v>
       </c>
       <c r="L332" s="72">
-        <v>79.582999999999998</v>
+        <v>79.583000000000013</v>
       </c>
       <c r="M332" s="72">
-        <v>26.647000000000002</v>
+        <v>26.646999999999998</v>
       </c>
       <c r="N332" s="72">
-        <v>100.732</v>
+        <v>100.73200000000001</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="M419" s="72">
-        <v>24.116000000000003</v>
+        <v>24.116</v>
       </c>
       <c r="N419" s="72">
         <v>0</v>
@@ -25300,7 +25300,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="M423" s="72">
-        <v>31.076999999999998</v>
+        <v>31.077000000000002</v>
       </c>
       <c r="N423" s="72">
         <v>38.051000000000002</v>
@@ -25341,13 +25341,13 @@
         <v>2.2880000000000003</v>
       </c>
       <c r="L424" s="72">
-        <v>22.541999999999998</v>
+        <v>22.542000000000002</v>
       </c>
       <c r="M424" s="72">
         <v>15.509</v>
       </c>
       <c r="N424" s="72">
-        <v>24.83</v>
+        <v>24.830000000000002</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -25458,7 +25458,7 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>27.110000000000003</v>
+        <v>27.11</v>
       </c>
       <c r="L427" s="72">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="N427" s="72">
-        <v>27.110000000000003</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
@@ -25593,13 +25593,13 @@
         <v>4.7249999999999996</v>
       </c>
       <c r="L430" s="72">
-        <v>30.527000000000001</v>
+        <v>30.526999999999994</v>
       </c>
       <c r="M430" s="72">
         <v>28.945</v>
       </c>
       <c r="N430" s="72">
-        <v>35.252000000000002</v>
+        <v>35.251999999999995</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -25637,13 +25637,13 @@
         <v>2.2069999999999999</v>
       </c>
       <c r="L431" s="72">
-        <v>20.759999999999998</v>
+        <v>20.76</v>
       </c>
       <c r="M431" s="72">
         <v>14.492000000000001</v>
       </c>
       <c r="N431" s="72">
-        <v>22.966999999999999</v>
+        <v>22.967000000000002</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
@@ -25804,7 +25804,7 @@
         <v>16.935000000000002</v>
       </c>
       <c r="M435" s="72">
-        <v>9.9949999999999992</v>
+        <v>9.995000000000001</v>
       </c>
       <c r="N435" s="72">
         <v>53.725999999999999</v>
@@ -25848,7 +25848,7 @@
         <v>11.428999999999995</v>
       </c>
       <c r="M436" s="72">
-        <v>42.296999999999997</v>
+        <v>42.297000000000004</v>
       </c>
       <c r="N436" s="72">
         <v>58.681999999999995</v>
@@ -25889,13 +25889,13 @@
         <v>4.6760000000000002</v>
       </c>
       <c r="L437" s="72">
-        <v>30.102000000000004</v>
+        <v>30.101999999999997</v>
       </c>
       <c r="M437" s="72">
         <v>28.58</v>
       </c>
       <c r="N437" s="72">
-        <v>34.778000000000006</v>
+        <v>34.777999999999999</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
@@ -25933,13 +25933,13 @@
         <v>2.1750000000000003</v>
       </c>
       <c r="L438" s="72">
-        <v>20.471000000000004</v>
+        <v>20.471</v>
       </c>
       <c r="M438" s="72">
-        <v>14.307</v>
+        <v>14.306999999999999</v>
       </c>
       <c r="N438" s="72">
-        <v>22.646000000000004</v>
+        <v>22.646000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
@@ -26050,7 +26050,7 @@
         <v>70</v>
       </c>
       <c r="K441" s="72">
-        <v>26.713000000000005</v>
+        <v>26.713000000000001</v>
       </c>
       <c r="L441" s="72">
         <v>0</v>
@@ -26059,7 +26059,7 @@
         <v>0</v>
       </c>
       <c r="N441" s="72">
-        <v>26.713000000000005</v>
+        <v>26.713000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -26094,10 +26094,10 @@
         <v>70</v>
       </c>
       <c r="K442" s="72">
-        <v>36.394000000000005</v>
+        <v>36.393999999999998</v>
       </c>
       <c r="L442" s="72">
-        <v>16.811999999999998</v>
+        <v>16.812000000000005</v>
       </c>
       <c r="M442" s="72">
         <v>9.9009999999999998</v>
@@ -26138,16 +26138,16 @@
         <v>70</v>
       </c>
       <c r="K443" s="72">
-        <v>46.838000000000008</v>
+        <v>46.838000000000001</v>
       </c>
       <c r="L443" s="72">
-        <v>11.335999999999984</v>
+        <v>11.335999999999999</v>
       </c>
       <c r="M443" s="72">
         <v>41.870000000000005</v>
       </c>
       <c r="N443" s="72">
-        <v>58.173999999999992</v>
+        <v>58.173999999999999</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
@@ -29781,13 +29781,13 @@
         <v>11.440999999999999</v>
       </c>
       <c r="L529" s="72">
-        <v>86.091999999999999</v>
+        <v>86.092000000000013</v>
       </c>
       <c r="M529" s="72">
-        <v>24.295999999999999</v>
+        <v>24.296000000000003</v>
       </c>
       <c r="N529" s="72">
-        <v>97.533000000000001</v>
+        <v>97.533000000000015</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.25">
@@ -29828,7 +29828,7 @@
         <v>29.071000000000002</v>
       </c>
       <c r="M530" s="72">
-        <v>68.461999999999989</v>
+        <v>68.462000000000003</v>
       </c>
       <c r="N530" s="72">
         <v>35.32</v>
@@ -29942,7 +29942,7 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>85.083000000000013</v>
+        <v>85.082999999999998</v>
       </c>
       <c r="L533" s="72">
         <v>36.376999999999995</v>
@@ -29951,7 +29951,7 @@
         <v>5.1099999999999994</v>
       </c>
       <c r="N533" s="72">
-        <v>121.46000000000001</v>
+        <v>121.46</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
@@ -29986,13 +29986,13 @@
         <v>70</v>
       </c>
       <c r="K534" s="72">
-        <v>27.559000000000005</v>
+        <v>27.558999999999997</v>
       </c>
       <c r="L534" s="72">
         <v>97.055000000000007</v>
       </c>
       <c r="M534" s="72">
-        <v>24.404999999999998</v>
+        <v>24.405000000000001</v>
       </c>
       <c r="N534" s="72">
         <v>124.614</v>
@@ -30124,7 +30124,7 @@
         <v>25.906999999999996</v>
       </c>
       <c r="M537" s="72">
-        <v>61.442000000000007</v>
+        <v>61.441999999999993</v>
       </c>
       <c r="N537" s="72">
         <v>31.024999999999999</v>
@@ -30238,7 +30238,7 @@
         <v>70</v>
       </c>
       <c r="K540" s="72">
-        <v>83.472999999999999</v>
+        <v>83.472999999999985</v>
       </c>
       <c r="L540" s="72">
         <v>35.809000000000012</v>
@@ -30247,7 +30247,7 @@
         <v>5.0369999999999999</v>
       </c>
       <c r="N540" s="72">
-        <v>119.28200000000001</v>
+        <v>119.282</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30282,16 +30282,16 @@
         <v>70</v>
       </c>
       <c r="K541" s="72">
-        <v>27.096000000000004</v>
+        <v>27.096</v>
       </c>
       <c r="L541" s="72">
-        <v>95.287999999999982</v>
+        <v>95.288000000000011</v>
       </c>
       <c r="M541" s="72">
-        <v>23.994000000000003</v>
+        <v>23.994</v>
       </c>
       <c r="N541" s="72">
-        <v>122.38399999999999</v>
+        <v>122.38400000000001</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30326,16 +30326,16 @@
         <v>70</v>
       </c>
       <c r="K542" s="72">
-        <v>76.313000000000002</v>
+        <v>76.312999999999988</v>
       </c>
       <c r="L542" s="72">
         <v>21.173000000000002</v>
       </c>
       <c r="M542" s="72">
-        <v>101.21099999999998</v>
+        <v>101.211</v>
       </c>
       <c r="N542" s="72">
-        <v>97.486000000000004</v>
+        <v>97.48599999999999</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.25">
@@ -30373,13 +30373,13 @@
         <v>9.9109999999999996</v>
       </c>
       <c r="L543" s="72">
-        <v>75.75200000000001</v>
+        <v>75.751999999999981</v>
       </c>
       <c r="M543" s="72">
         <v>21.734000000000002</v>
       </c>
       <c r="N543" s="72">
-        <v>85.663000000000011</v>
+        <v>85.662999999999982</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30417,13 +30417,13 @@
         <v>4.91</v>
       </c>
       <c r="L544" s="72">
-        <v>25.39</v>
+        <v>25.390000000000004</v>
       </c>
       <c r="M544" s="72">
-        <v>60.272999999999996</v>
+        <v>60.273000000000003</v>
       </c>
       <c r="N544" s="72">
-        <v>30.3</v>
+        <v>30.300000000000004</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.25">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="72">
-        <v>30.3</v>
+        <v>30.300000000000004</v>
       </c>
       <c r="N545" s="72">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>40.595999999999997</v>
+        <v>40.596000000000004</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>40.595999999999997</v>
+        <v>40.596000000000004</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -30537,13 +30537,13 @@
         <v>82.649000000000001</v>
       </c>
       <c r="L547" s="72">
-        <v>35.590000000000003</v>
+        <v>35.589999999999989</v>
       </c>
       <c r="M547" s="72">
         <v>5.0060000000000002</v>
       </c>
       <c r="N547" s="72">
-        <v>118.239</v>
+        <v>118.23899999999999</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -30578,16 +30578,16 @@
         <v>70</v>
       </c>
       <c r="K548" s="72">
-        <v>26.802999999999997</v>
+        <v>26.803000000000004</v>
       </c>
       <c r="L548" s="72">
-        <v>94.455000000000013</v>
+        <v>94.454999999999984</v>
       </c>
       <c r="M548" s="72">
         <v>23.783999999999999</v>
       </c>
       <c r="N548" s="72">
-        <v>121.25800000000001</v>
+        <v>121.258</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -34520,7 +34520,7 @@
         <v>89.006</v>
       </c>
       <c r="M641" s="72">
-        <v>24.236999999999998</v>
+        <v>24.236999999999995</v>
       </c>
       <c r="N641" s="72">
         <v>95.001000000000005</v>
@@ -34561,13 +34561,13 @@
         <v>5.9619999999999997</v>
       </c>
       <c r="L642" s="72">
-        <v>27.899999999999995</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="M642" s="72">
-        <v>67.100999999999999</v>
+        <v>67.100999999999985</v>
       </c>
       <c r="N642" s="72">
-        <v>33.861999999999995</v>
+        <v>33.862000000000002</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
@@ -34605,7 +34605,7 @@
         <v>0</v>
       </c>
       <c r="M643" s="72">
-        <v>33.861999999999995</v>
+        <v>33.862000000000002</v>
       </c>
       <c r="N643" s="72">
         <v>0</v>
@@ -34681,13 +34681,13 @@
         <v>80.213999999999999</v>
       </c>
       <c r="L645" s="72">
-        <v>33.397999999999996</v>
+        <v>33.398000000000025</v>
       </c>
       <c r="M645" s="72">
         <v>5.0709999999999997</v>
       </c>
       <c r="N645" s="72">
-        <v>113.61199999999999</v>
+        <v>113.61200000000002</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.25">
@@ -34728,7 +34728,7 @@
         <v>88.988000000000028</v>
       </c>
       <c r="M646" s="72">
-        <v>24.623999999999995</v>
+        <v>24.624000000000002</v>
       </c>
       <c r="N646" s="72">
         <v>136.36200000000002</v>
@@ -34769,13 +34769,13 @@
         <v>79.566000000000003</v>
       </c>
       <c r="L647" s="72">
-        <v>23.591999999999985</v>
+        <v>23.591999999999999</v>
       </c>
       <c r="M647" s="72">
         <v>112.77000000000001</v>
       </c>
       <c r="N647" s="72">
-        <v>103.15799999999999</v>
+        <v>103.158</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -34813,13 +34813,13 @@
         <v>5.4050000000000002</v>
       </c>
       <c r="L648" s="72">
-        <v>80.474999999999994</v>
+        <v>80.475000000000009</v>
       </c>
       <c r="M648" s="72">
         <v>22.683</v>
       </c>
       <c r="N648" s="72">
-        <v>85.88</v>
+        <v>85.88000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -34860,7 +34860,7 @@
         <v>25.057000000000002</v>
       </c>
       <c r="M649" s="72">
-        <v>60.822999999999993</v>
+        <v>60.823</v>
       </c>
       <c r="N649" s="72">
         <v>29.934000000000005</v>
@@ -34974,10 +34974,10 @@
         <v>70</v>
       </c>
       <c r="K652" s="72">
-        <v>78.686999999999998</v>
+        <v>78.687000000000012</v>
       </c>
       <c r="L652" s="72">
-        <v>32.870999999999995</v>
+        <v>32.870999999999981</v>
       </c>
       <c r="M652" s="72">
         <v>4.9979999999999993</v>
@@ -35018,13 +35018,13 @@
         <v>70</v>
       </c>
       <c r="K653" s="72">
-        <v>46.64</v>
+        <v>46.639999999999993</v>
       </c>
       <c r="L653" s="72">
-        <v>87.357000000000014</v>
+        <v>87.357000000000028</v>
       </c>
       <c r="M653" s="72">
-        <v>24.201000000000001</v>
+        <v>24.201000000000004</v>
       </c>
       <c r="N653" s="72">
         <v>133.99700000000001</v>
@@ -35062,10 +35062,10 @@
         <v>70</v>
       </c>
       <c r="K654" s="72">
-        <v>78.263000000000005</v>
+        <v>78.262999999999991</v>
       </c>
       <c r="L654" s="72">
-        <v>23.22999999999999</v>
+        <v>23.230000000000004</v>
       </c>
       <c r="M654" s="72">
         <v>110.76700000000001</v>
@@ -35153,13 +35153,13 @@
         <v>4.6790000000000003</v>
       </c>
       <c r="L656" s="72">
-        <v>24.598999999999997</v>
+        <v>24.599000000000004</v>
       </c>
       <c r="M656" s="72">
         <v>59.783000000000001</v>
       </c>
       <c r="N656" s="72">
-        <v>29.277999999999999</v>
+        <v>29.278000000000002</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>29.277999999999999</v>
+        <v>29.278000000000002</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35320,7 +35320,7 @@
         <v>86.588999999999984</v>
       </c>
       <c r="M660" s="72">
-        <v>23.989000000000004</v>
+        <v>23.988999999999997</v>
       </c>
       <c r="N660" s="72">
         <v>132.69299999999998</v>
@@ -35358,16 +35358,16 @@
         <v>70</v>
       </c>
       <c r="K661" s="72">
-        <v>77.7</v>
+        <v>77.699999999999989</v>
       </c>
       <c r="L661" s="72">
         <v>23.022000000000006</v>
       </c>
       <c r="M661" s="72">
-        <v>109.67099999999999</v>
+        <v>109.67100000000001</v>
       </c>
       <c r="N661" s="72">
-        <v>100.72200000000001</v>
+        <v>100.72199999999999</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
         <v>70</v>
       </c>
       <c r="K665" s="72">
-        <v>36.567</v>
+        <v>36.566999999999993</v>
       </c>
       <c r="L665" s="72">
         <v>0</v>
@@ -35531,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="N665" s="72">
-        <v>36.567</v>
+        <v>36.566999999999993</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
@@ -39678,10 +39678,10 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>50.588000000000008</v>
+        <v>50.588000000000001</v>
       </c>
       <c r="L763" s="72">
-        <v>70.442999999999998</v>
+        <v>70.443000000000012</v>
       </c>
       <c r="M763" s="72">
         <v>21.043999999999997</v>
@@ -39722,10 +39722,10 @@
         <v>70</v>
       </c>
       <c r="K764" s="72">
-        <v>49.054999999999993</v>
+        <v>49.055</v>
       </c>
       <c r="L764" s="72">
-        <v>40.975000000000009</v>
+        <v>40.975000000000001</v>
       </c>
       <c r="M764" s="72">
         <v>80.056000000000012</v>
@@ -39766,7 +39766,7 @@
         <v>70</v>
       </c>
       <c r="K765" s="72">
-        <v>13.58</v>
+        <v>13.580000000000002</v>
       </c>
       <c r="L765" s="72">
         <v>65.965999999999994</v>
@@ -39810,16 +39810,16 @@
         <v>70</v>
       </c>
       <c r="K766" s="72">
-        <v>12.613</v>
+        <v>12.613000000000001</v>
       </c>
       <c r="L766" s="72">
-        <v>42.304999999999993</v>
+        <v>42.305</v>
       </c>
       <c r="M766" s="72">
         <v>37.241</v>
       </c>
       <c r="N766" s="72">
-        <v>54.917999999999992</v>
+        <v>54.917999999999999</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.25">
@@ -39857,13 +39857,13 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="L767" s="72">
-        <v>25.880000000000003</v>
+        <v>25.88</v>
       </c>
       <c r="M767" s="72">
-        <v>29.037999999999997</v>
+        <v>29.038</v>
       </c>
       <c r="N767" s="72">
-        <v>26.432000000000002</v>
+        <v>26.431999999999999</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.25">
@@ -39901,7 +39901,7 @@
         <v>0</v>
       </c>
       <c r="M768" s="72">
-        <v>26.432000000000002</v>
+        <v>26.431999999999999</v>
       </c>
       <c r="N768" s="72">
         <v>0</v>
@@ -39974,16 +39974,16 @@
         <v>70</v>
       </c>
       <c r="K770" s="72">
-        <v>38.823000000000008</v>
+        <v>38.823</v>
       </c>
       <c r="L770" s="72">
-        <v>41.883999999999986</v>
+        <v>41.884000000000007</v>
       </c>
       <c r="M770" s="72">
         <v>0.46100000000000002</v>
       </c>
       <c r="N770" s="72">
-        <v>80.706999999999994</v>
+        <v>80.707000000000008</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -40068,7 +40068,7 @@
         <v>69.542000000000002</v>
       </c>
       <c r="M772" s="72">
-        <v>20.843999999999998</v>
+        <v>20.844000000000001</v>
       </c>
       <c r="N772" s="72">
         <v>117.9</v>
@@ -40112,7 +40112,7 @@
         <v>39.228999999999999</v>
       </c>
       <c r="M773" s="72">
-        <v>78.671000000000006</v>
+        <v>78.670999999999992</v>
       </c>
       <c r="N773" s="72">
         <v>87.195999999999998</v>
@@ -40150,16 +40150,16 @@
         <v>70</v>
       </c>
       <c r="K774" s="72">
-        <v>13.298000000000002</v>
+        <v>13.298</v>
       </c>
       <c r="L774" s="72">
-        <v>63.509999999999991</v>
+        <v>63.510000000000019</v>
       </c>
       <c r="M774" s="72">
         <v>23.686</v>
       </c>
       <c r="N774" s="72">
-        <v>76.807999999999993</v>
+        <v>76.808000000000021</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.25">
@@ -40197,13 +40197,13 @@
         <v>12.231999999999999</v>
       </c>
       <c r="L775" s="72">
-        <v>40.881999999999991</v>
+        <v>40.881999999999998</v>
       </c>
       <c r="M775" s="72">
-        <v>35.925999999999995</v>
+        <v>35.926000000000002</v>
       </c>
       <c r="N775" s="72">
-        <v>53.11399999999999</v>
+        <v>53.113999999999997</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.25">
@@ -40244,7 +40244,7 @@
         <v>25.128</v>
       </c>
       <c r="M776" s="72">
-        <v>27.985999999999997</v>
+        <v>27.986000000000001</v>
       </c>
       <c r="N776" s="72">
         <v>25.658999999999999</v>
@@ -40361,13 +40361,13 @@
         <v>38.677</v>
       </c>
       <c r="L779" s="72">
-        <v>41.776999999999994</v>
+        <v>41.777000000000008</v>
       </c>
       <c r="M779" s="72">
         <v>0.46</v>
       </c>
       <c r="N779" s="72">
-        <v>80.453999999999994</v>
+        <v>80.454000000000008</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.25">
@@ -40402,16 +40402,16 @@
         <v>70</v>
       </c>
       <c r="K780" s="72">
-        <v>28.507000000000001</v>
+        <v>28.506999999999998</v>
       </c>
       <c r="L780" s="72">
-        <v>61.561999999999983</v>
+        <v>61.562000000000005</v>
       </c>
       <c r="M780" s="72">
-        <v>18.892000000000003</v>
+        <v>18.891999999999999</v>
       </c>
       <c r="N780" s="72">
-        <v>90.068999999999988</v>
+        <v>90.069000000000003</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
@@ -40446,7 +40446,7 @@
         <v>70</v>
       </c>
       <c r="K781" s="72">
-        <v>47.828000000000003</v>
+        <v>47.827999999999996</v>
       </c>
       <c r="L781" s="72">
         <v>69.287000000000006</v>
@@ -40493,13 +40493,13 @@
         <v>47.716999999999999</v>
       </c>
       <c r="L782" s="72">
-        <v>38.856999999999999</v>
+        <v>38.857000000000014</v>
       </c>
       <c r="M782" s="72">
-        <v>78.257999999999996</v>
+        <v>78.25800000000001</v>
       </c>
       <c r="N782" s="72">
-        <v>86.573999999999998</v>
+        <v>86.574000000000012</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.25">
@@ -40534,13 +40534,13 @@
         <v>70</v>
       </c>
       <c r="K783" s="72">
-        <v>13.116000000000001</v>
+        <v>13.116</v>
       </c>
       <c r="L783" s="72">
         <v>63.00500000000001</v>
       </c>
       <c r="M783" s="72">
-        <v>23.568999999999996</v>
+        <v>23.568999999999999</v>
       </c>
       <c r="N783" s="72">
         <v>76.121000000000009</v>
@@ -40698,7 +40698,7 @@
         <v>70</v>
       </c>
       <c r="K787" s="72">
-        <v>41.925999999999995</v>
+        <v>41.926000000000002</v>
       </c>
       <c r="L787" s="72">
         <v>0</v>
@@ -40707,7 +40707,7 @@
         <v>0</v>
       </c>
       <c r="N787" s="72">
-        <v>41.925999999999995</v>
+        <v>41.926000000000002</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.25">
@@ -40745,13 +40745,13 @@
         <v>38.248000000000005</v>
       </c>
       <c r="L788" s="72">
-        <v>41.469999999999985</v>
+        <v>41.47</v>
       </c>
       <c r="M788" s="72">
         <v>0.45600000000000002</v>
       </c>
       <c r="N788" s="72">
-        <v>79.717999999999989</v>
+        <v>79.718000000000004</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -45570,10 +45570,10 @@
         <v>70</v>
       </c>
       <c r="K901" s="72">
-        <v>17.013999999999999</v>
+        <v>17.014000000000003</v>
       </c>
       <c r="L901" s="72">
-        <v>54.188000000000002</v>
+        <v>54.187999999999995</v>
       </c>
       <c r="M901" s="72">
         <v>42.323999999999998</v>
@@ -45620,7 +45620,7 @@
         <v>34.727000000000004</v>
       </c>
       <c r="M902" s="72">
-        <v>36.474999999999994</v>
+        <v>36.475000000000001</v>
       </c>
       <c r="N902" s="72">
         <v>35.666000000000004</v>
@@ -45822,13 +45822,13 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>33.616999999999997</v>
+        <v>33.617000000000004</v>
       </c>
       <c r="L907" s="72">
-        <v>73.26600000000002</v>
+        <v>73.266000000000005</v>
       </c>
       <c r="M907" s="72">
-        <v>18.059000000000001</v>
+        <v>18.058999999999997</v>
       </c>
       <c r="N907" s="72">
         <v>106.88300000000001</v>
@@ -45869,13 +45869,13 @@
         <v>46.608000000000004</v>
       </c>
       <c r="L908" s="72">
-        <v>39.917999999999992</v>
+        <v>39.918000000000006</v>
       </c>
       <c r="M908" s="72">
         <v>66.965000000000003</v>
       </c>
       <c r="N908" s="72">
-        <v>86.525999999999996</v>
+        <v>86.52600000000001</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -45913,13 +45913,13 @@
         <v>18.896000000000001</v>
       </c>
       <c r="L909" s="72">
-        <v>59.511999999999986</v>
+        <v>59.512</v>
       </c>
       <c r="M909" s="72">
         <v>27.013999999999999</v>
       </c>
       <c r="N909" s="72">
-        <v>78.407999999999987</v>
+        <v>78.408000000000001</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.25">
@@ -46001,13 +46001,13 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="L911" s="72">
-        <v>29.552</v>
+        <v>29.552000000000007</v>
       </c>
       <c r="M911" s="72">
         <v>29.942999999999998</v>
       </c>
       <c r="N911" s="72">
-        <v>30.318000000000001</v>
+        <v>30.318000000000005</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.25">
@@ -46045,7 +46045,7 @@
         <v>0</v>
       </c>
       <c r="M912" s="72">
-        <v>30.318000000000001</v>
+        <v>30.318000000000005</v>
       </c>
       <c r="N912" s="72">
         <v>0</v>
@@ -46121,13 +46121,13 @@
         <v>41.561</v>
       </c>
       <c r="L914" s="72">
-        <v>42.722000000000016</v>
+        <v>42.722000000000001</v>
       </c>
       <c r="M914" s="72">
         <v>0.35000000000000003</v>
       </c>
       <c r="N914" s="72">
-        <v>84.283000000000015</v>
+        <v>84.283000000000001</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.25">
@@ -46168,7 +46168,7 @@
         <v>60.373000000000012</v>
       </c>
       <c r="M915" s="72">
-        <v>23.909999999999997</v>
+        <v>23.910000000000004</v>
       </c>
       <c r="N915" s="72">
         <v>90.109000000000009</v>
@@ -46206,7 +46206,7 @@
         <v>70</v>
       </c>
       <c r="K916" s="72">
-        <v>31.722000000000005</v>
+        <v>31.721999999999998</v>
       </c>
       <c r="L916" s="72">
         <v>72.197000000000003</v>
@@ -46215,7 +46215,7 @@
         <v>17.911999999999999</v>
       </c>
       <c r="N916" s="72">
-        <v>103.91900000000001</v>
+        <v>103.919</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
@@ -46250,13 +46250,13 @@
         <v>70</v>
       </c>
       <c r="K917" s="72">
-        <v>45.418000000000006</v>
+        <v>45.417999999999992</v>
       </c>
       <c r="L917" s="72">
-        <v>38.062999999999988</v>
+        <v>38.063000000000002</v>
       </c>
       <c r="M917" s="72">
-        <v>65.856000000000023</v>
+        <v>65.856000000000009</v>
       </c>
       <c r="N917" s="72">
         <v>83.480999999999995</v>
@@ -46300,7 +46300,7 @@
         <v>56.960999999999999</v>
       </c>
       <c r="M918" s="72">
-        <v>26.520000000000003</v>
+        <v>26.52</v>
       </c>
       <c r="N918" s="72">
         <v>75.421999999999997</v>
@@ -46338,16 +46338,16 @@
         <v>70</v>
       </c>
       <c r="K919" s="72">
-        <v>13.923000000000002</v>
+        <v>13.922999999999998</v>
       </c>
       <c r="L919" s="72">
-        <v>43.616999999999997</v>
+        <v>43.617000000000004</v>
       </c>
       <c r="M919" s="72">
         <v>31.805</v>
       </c>
       <c r="N919" s="72">
-        <v>57.54</v>
+        <v>57.540000000000006</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.25">
@@ -46502,10 +46502,10 @@
         <v>70</v>
       </c>
       <c r="K923" s="72">
-        <v>41.396999999999998</v>
+        <v>41.397000000000006</v>
       </c>
       <c r="L923" s="72">
-        <v>42.598000000000006</v>
+        <v>42.597999999999999</v>
       </c>
       <c r="M923" s="72">
         <v>0.34900000000000003</v>
@@ -46552,7 +46552,7 @@
         <v>60.197999999999993</v>
       </c>
       <c r="M924" s="72">
-        <v>23.796999999999997</v>
+        <v>23.797000000000001</v>
       </c>
       <c r="N924" s="72">
         <v>89.731999999999999</v>
@@ -46590,10 +46590,10 @@
         <v>70</v>
       </c>
       <c r="K925" s="72">
-        <v>31.314000000000004</v>
+        <v>31.314</v>
       </c>
       <c r="L925" s="72">
-        <v>71.878</v>
+        <v>71.878000000000014</v>
       </c>
       <c r="M925" s="72">
         <v>17.853999999999999</v>
@@ -46640,7 +46640,7 @@
         <v>37.676999999999992</v>
       </c>
       <c r="M926" s="72">
-        <v>65.515000000000001</v>
+        <v>65.515000000000015</v>
       </c>
       <c r="N926" s="72">
         <v>82.820999999999998</v>
@@ -46681,13 +46681,13 @@
         <v>18.111000000000001</v>
       </c>
       <c r="L927" s="72">
-        <v>56.440000000000012</v>
+        <v>56.44</v>
       </c>
       <c r="M927" s="72">
         <v>26.381</v>
       </c>
       <c r="N927" s="72">
-        <v>74.551000000000016</v>
+        <v>74.551000000000002</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -46842,7 +46842,7 @@
         <v>70</v>
       </c>
       <c r="K931" s="72">
-        <v>42.597000000000001</v>
+        <v>42.597000000000008</v>
       </c>
       <c r="L931" s="72">
         <v>0</v>
@@ -46851,7 +46851,7 @@
         <v>0</v>
       </c>
       <c r="N931" s="72">
-        <v>42.597000000000001</v>
+        <v>42.597000000000008</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.25">
@@ -46886,10 +46886,10 @@
         <v>70</v>
       </c>
       <c r="K932" s="72">
-        <v>40.815000000000005</v>
+        <v>40.814999999999998</v>
       </c>
       <c r="L932" s="72">
-        <v>42.249999999999993</v>
+        <v>42.25</v>
       </c>
       <c r="M932" s="72">
         <v>0.34700000000000003</v>
@@ -51714,7 +51714,7 @@
         <v>70</v>
       </c>
       <c r="K1045" s="72">
-        <v>8.972999999999999</v>
+        <v>8.9730000000000008</v>
       </c>
       <c r="L1045" s="72">
         <v>49.650000000000006</v>
@@ -51764,7 +51764,7 @@
         <v>25.849000000000004</v>
       </c>
       <c r="M1046" s="72">
-        <v>32.773999999999994</v>
+        <v>32.774000000000001</v>
       </c>
       <c r="N1046" s="72">
         <v>29.578000000000003</v>
@@ -51966,7 +51966,7 @@
         <v>70</v>
       </c>
       <c r="K1051" s="72">
-        <v>56.195999999999991</v>
+        <v>56.196000000000005</v>
       </c>
       <c r="L1051" s="72">
         <v>81.859999999999985</v>
@@ -52016,7 +52016,7 @@
         <v>34.589000000000006</v>
       </c>
       <c r="M1052" s="72">
-        <v>103.46700000000001</v>
+        <v>103.46699999999998</v>
       </c>
       <c r="N1052" s="72">
         <v>59.924000000000007</v>
@@ -52057,13 +52057,13 @@
         <v>31.768999999999998</v>
       </c>
       <c r="L1053" s="72">
-        <v>36.822999999999986</v>
+        <v>36.823</v>
       </c>
       <c r="M1053" s="72">
         <v>23.100999999999999</v>
       </c>
       <c r="N1053" s="72">
-        <v>68.591999999999985</v>
+        <v>68.591999999999999</v>
       </c>
     </row>
     <row r="1054" spans="1:14" x14ac:dyDescent="0.25">
@@ -52098,10 +52098,10 @@
         <v>70</v>
       </c>
       <c r="K1054" s="72">
-        <v>7.7759999999999998</v>
+        <v>7.7760000000000007</v>
       </c>
       <c r="L1054" s="72">
-        <v>41.626000000000005</v>
+        <v>41.625999999999998</v>
       </c>
       <c r="M1054" s="72">
         <v>26.966000000000001</v>
@@ -52262,16 +52262,16 @@
         <v>70</v>
       </c>
       <c r="K1058" s="72">
-        <v>38.304000000000002</v>
+        <v>38.303999999999995</v>
       </c>
       <c r="L1058" s="72">
-        <v>30.688000000000002</v>
+        <v>30.687999999999995</v>
       </c>
       <c r="M1058" s="72">
         <v>2.9779999999999998</v>
       </c>
       <c r="N1058" s="72">
-        <v>68.992000000000004</v>
+        <v>68.99199999999999</v>
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
@@ -52306,13 +52306,13 @@
         <v>70</v>
       </c>
       <c r="K1059" s="72">
-        <v>62.034999999999997</v>
+        <v>62.035000000000004</v>
       </c>
       <c r="L1059" s="72">
-        <v>60.632000000000005</v>
+        <v>60.631999999999998</v>
       </c>
       <c r="M1059" s="72">
-        <v>8.36</v>
+        <v>8.3600000000000012</v>
       </c>
       <c r="N1059" s="72">
         <v>122.667</v>
@@ -52350,13 +52350,13 @@
         <v>70</v>
       </c>
       <c r="K1060" s="72">
-        <v>55.454000000000001</v>
+        <v>55.453999999999994</v>
       </c>
       <c r="L1060" s="72">
-        <v>80.891999999999996</v>
+        <v>80.89200000000001</v>
       </c>
       <c r="M1060" s="72">
-        <v>41.775000000000006</v>
+        <v>41.774999999999999</v>
       </c>
       <c r="N1060" s="72">
         <v>136.346</v>
@@ -52397,13 +52397,13 @@
         <v>24.140999999999998</v>
       </c>
       <c r="L1061" s="72">
-        <v>34.223000000000006</v>
+        <v>34.222999999999992</v>
       </c>
       <c r="M1061" s="72">
-        <v>102.12300000000002</v>
+        <v>102.12299999999999</v>
       </c>
       <c r="N1061" s="72">
-        <v>58.364000000000004</v>
+        <v>58.36399999999999</v>
       </c>
     </row>
     <row r="1062" spans="1:14" x14ac:dyDescent="0.25">
@@ -52438,13 +52438,13 @@
         <v>70</v>
       </c>
       <c r="K1062" s="72">
-        <v>31.152000000000001</v>
+        <v>31.151999999999997</v>
       </c>
       <c r="L1062" s="72">
         <v>35.608999999999995</v>
       </c>
       <c r="M1062" s="72">
-        <v>22.755000000000003</v>
+        <v>22.754999999999999</v>
       </c>
       <c r="N1062" s="72">
         <v>66.760999999999996</v>
@@ -52693,13 +52693,13 @@
         <v>61.680999999999997</v>
       </c>
       <c r="L1068" s="72">
-        <v>60.430000000000007</v>
+        <v>60.429999999999993</v>
       </c>
       <c r="M1068" s="72">
         <v>8.286999999999999</v>
       </c>
       <c r="N1068" s="72">
-        <v>122.111</v>
+        <v>122.11099999999999</v>
       </c>
     </row>
     <row r="1069" spans="1:14" x14ac:dyDescent="0.25">
@@ -52737,13 +52737,13 @@
         <v>54.975999999999999</v>
       </c>
       <c r="L1069" s="72">
-        <v>80.532000000000011</v>
+        <v>80.532000000000039</v>
       </c>
       <c r="M1069" s="72">
         <v>41.579000000000001</v>
       </c>
       <c r="N1069" s="72">
-        <v>135.50800000000001</v>
+        <v>135.50800000000004</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.25">
@@ -52778,13 +52778,13 @@
         <v>70</v>
       </c>
       <c r="K1070" s="72">
-        <v>23.883000000000003</v>
+        <v>23.882999999999996</v>
       </c>
       <c r="L1070" s="72">
-        <v>34.048000000000002</v>
+        <v>34.048000000000009</v>
       </c>
       <c r="M1070" s="72">
-        <v>101.46000000000001</v>
+        <v>101.45999999999998</v>
       </c>
       <c r="N1070" s="72">
         <v>57.931000000000004</v>
@@ -52822,7 +52822,7 @@
         <v>70</v>
       </c>
       <c r="K1071" s="72">
-        <v>30.564999999999998</v>
+        <v>30.565000000000001</v>
       </c>
       <c r="L1071" s="72">
         <v>35.316000000000003</v>
@@ -53074,16 +53074,16 @@
         <v>70</v>
       </c>
       <c r="K1077" s="72">
-        <v>59.964999999999989</v>
+        <v>59.965000000000003</v>
       </c>
       <c r="L1077" s="72">
-        <v>59.697000000000017</v>
+        <v>59.696999999999989</v>
       </c>
       <c r="M1077" s="72">
         <v>8.179000000000002</v>
       </c>
       <c r="N1077" s="72">
-        <v>119.66200000000001</v>
+        <v>119.66199999999999</v>
       </c>
     </row>
     <row r="1078" spans="1:14" x14ac:dyDescent="0.25">
@@ -57814,10 +57814,10 @@
         <v>70</v>
       </c>
       <c r="K1188" s="72">
-        <v>51.08400000000001</v>
+        <v>51.084000000000003</v>
       </c>
       <c r="L1188" s="72">
-        <v>36.734000000000002</v>
+        <v>36.734000000000009</v>
       </c>
       <c r="M1188" s="72">
         <v>0</v>
@@ -58198,10 +58198,10 @@
         <v>70</v>
       </c>
       <c r="K1197" s="72">
-        <v>45.926000000000002</v>
+        <v>45.925999999999995</v>
       </c>
       <c r="L1197" s="72">
-        <v>30.052000000000007</v>
+        <v>30.052000000000014</v>
       </c>
       <c r="M1197" s="72">
         <v>16.43</v>
@@ -58245,13 +58245,13 @@
         <v>10.605</v>
       </c>
       <c r="L1198" s="72">
-        <v>45.266000000000005</v>
+        <v>45.265999999999991</v>
       </c>
       <c r="M1198" s="72">
-        <v>30.711999999999996</v>
+        <v>30.712000000000003</v>
       </c>
       <c r="N1198" s="72">
-        <v>55.871000000000002</v>
+        <v>55.870999999999995</v>
       </c>
     </row>
     <row r="1199" spans="1:14" x14ac:dyDescent="0.25">
@@ -58292,7 +58292,7 @@
         <v>25.113000000000003</v>
       </c>
       <c r="M1199" s="72">
-        <v>30.758000000000003</v>
+        <v>30.757999999999999</v>
       </c>
       <c r="N1199" s="72">
         <v>28.231000000000002</v>
@@ -58406,10 +58406,10 @@
         <v>70</v>
       </c>
       <c r="K1202" s="72">
-        <v>40.234000000000002</v>
+        <v>40.234000000000009</v>
       </c>
       <c r="L1202" s="72">
-        <v>33.250000000000007</v>
+        <v>33.25</v>
       </c>
       <c r="M1202" s="72">
         <v>3.1320000000000001</v>
@@ -58456,7 +58456,7 @@
         <v>67.889999999999986</v>
       </c>
       <c r="M1203" s="72">
-        <v>5.5940000000000003</v>
+        <v>5.5939999999999994</v>
       </c>
       <c r="N1203" s="72">
         <v>139.00299999999999</v>
@@ -58538,10 +58538,10 @@
         <v>70</v>
       </c>
       <c r="K1205" s="72">
-        <v>18.535</v>
+        <v>18.534999999999997</v>
       </c>
       <c r="L1205" s="72">
-        <v>26.680000000000003</v>
+        <v>26.680000000000007</v>
       </c>
       <c r="M1205" s="72">
         <v>86.376000000000005</v>
@@ -58588,7 +58588,7 @@
         <v>28.988</v>
       </c>
       <c r="M1206" s="72">
-        <v>16.226999999999997</v>
+        <v>16.227</v>
       </c>
       <c r="N1206" s="72">
         <v>73.994</v>
@@ -58629,13 +58629,13 @@
         <v>10.309000000000001</v>
       </c>
       <c r="L1207" s="72">
-        <v>43.86099999999999</v>
+        <v>43.861000000000004</v>
       </c>
       <c r="M1207" s="72">
         <v>30.132999999999996</v>
       </c>
       <c r="N1207" s="72">
-        <v>54.169999999999987</v>
+        <v>54.170000000000009</v>
       </c>
     </row>
     <row r="1208" spans="1:14" x14ac:dyDescent="0.25">
@@ -58673,13 +58673,13 @@
         <v>2.96</v>
       </c>
       <c r="L1208" s="72">
-        <v>24.351999999999997</v>
+        <v>24.352</v>
       </c>
       <c r="M1208" s="72">
-        <v>29.817999999999998</v>
+        <v>29.818000000000001</v>
       </c>
       <c r="N1208" s="72">
-        <v>27.311999999999998</v>
+        <v>27.312000000000001</v>
       </c>
     </row>
     <row r="1209" spans="1:14" x14ac:dyDescent="0.25">
@@ -58717,7 +58717,7 @@
         <v>0</v>
       </c>
       <c r="M1209" s="72">
-        <v>27.311999999999998</v>
+        <v>27.312000000000001</v>
       </c>
       <c r="N1209" s="72">
         <v>0</v>
@@ -58834,10 +58834,10 @@
         <v>70</v>
       </c>
       <c r="K1212" s="72">
-        <v>70.614999999999995</v>
+        <v>70.615000000000009</v>
       </c>
       <c r="L1212" s="72">
-        <v>67.625999999999991</v>
+        <v>67.625999999999976</v>
       </c>
       <c r="M1212" s="72">
         <v>5.572000000000001</v>
@@ -58881,13 +58881,13 @@
         <v>34.852000000000004</v>
       </c>
       <c r="L1213" s="72">
-        <v>77.486000000000004</v>
+        <v>77.48599999999999</v>
       </c>
       <c r="M1213" s="72">
-        <v>60.755000000000003</v>
+        <v>60.754999999999995</v>
       </c>
       <c r="N1213" s="72">
-        <v>112.33800000000001</v>
+        <v>112.33799999999999</v>
       </c>
     </row>
     <row r="1214" spans="1:14" x14ac:dyDescent="0.25">
@@ -58925,13 +58925,13 @@
         <v>18.332999999999998</v>
       </c>
       <c r="L1214" s="72">
-        <v>26.509000000000007</v>
+        <v>26.509</v>
       </c>
       <c r="M1214" s="72">
         <v>85.829000000000008</v>
       </c>
       <c r="N1214" s="72">
-        <v>44.842000000000006</v>
+        <v>44.841999999999999</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.25">
@@ -58972,7 +58972,7 @@
         <v>0</v>
       </c>
       <c r="M1215" s="72">
-        <v>16.123000000000001</v>
+        <v>16.122999999999998</v>
       </c>
       <c r="N1215" s="72">
         <v>0</v>
@@ -59177,13 +59177,13 @@
         <v>39.234999999999999</v>
       </c>
       <c r="L1220" s="72">
-        <v>32.828000000000003</v>
+        <v>32.827999999999989</v>
       </c>
       <c r="M1220" s="72">
         <v>3.0939999999999999</v>
       </c>
       <c r="N1220" s="72">
-        <v>72.063000000000002</v>
+        <v>72.062999999999988</v>
       </c>
     </row>
     <row r="1221" spans="1:14" x14ac:dyDescent="0.25">
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999978</v>
+        <v>258.13924999999983</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.6146172619047614</v>
+        <v>0.61461726190476151</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66134,13 +66134,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999994</v>
+        <v>46.930249999999965</v>
       </c>
       <c r="H7" s="72">
         <v>420</v>
       </c>
       <c r="I7" s="76">
-        <v>0.11173869047619046</v>
+        <v>0.11173869047619039</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999975</v>
+        <v>296.44324999999986</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476135</v>
+        <v>0.70581726190476157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000007</v>
+        <v>76.064000000000021</v>
       </c>
       <c r="H11" s="72">
         <v>420</v>
       </c>
       <c r="I11" s="76">
-        <v>0.18110476190476194</v>
+        <v>0.18110476190476196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.2242500000001</v>
+        <v>359.22424999999987</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85529583333333359</v>
+        <v>0.85529583333333303</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.00425000000006</v>
+        <v>119.00424999999998</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28334345238095249</v>
+        <v>0.28334345238095232</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999979</v>
+        <v>50.378000000000043</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.23989523809523799</v>
+        <v>0.2398952380952383</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66540,13 +66540,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>80.989749999999944</v>
+        <v>80.989750000000029</v>
       </c>
       <c r="H21" s="72">
         <v>210</v>
       </c>
       <c r="I21" s="76">
-        <v>0.38566547619047592</v>
+        <v>0.38566547619047631</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000016</v>
+        <v>61.135749999999938</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.2911226190476191</v>
+        <v>0.29112261904761877</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66656,13 +66656,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.85349999999999</v>
+        <v>43.853500000000025</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619042</v>
+        <v>0.20882619047619061</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -66801,13 +66801,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>178.53649999999993</v>
+        <v>178.53649999999999</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.85017380952380917</v>
+        <v>0.8501738095238095</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -66830,13 +66830,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>126.28975</v>
+        <v>126.28975000000005</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.60137976190476194</v>
+        <v>0.60137976190476217</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>109.67724999999999</v>
+        <v>109.67724999999997</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.52227261904761901</v>
+        <v>0.5222726190476189</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66888,13 +66888,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>183.52399999999994</v>
+        <v>183.52399999999997</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.87392380952380921</v>
+        <v>0.87392380952380944</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>579.95300000000043</v>
+        <v>579.95299999999952</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.92056031746031819</v>
+        <v>0.92056031746031675</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66975,13 +66975,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>85.914249999999981</v>
+        <v>85.914250000000123</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.40911547619047611</v>
+        <v>0.40911547619047678</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -67004,13 +67004,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>120.77799999999998</v>
+        <v>120.77800000000002</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.57513333333333327</v>
+        <v>0.57513333333333339</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -67033,13 +67033,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>135.41724999999997</v>
+        <v>135.41724999999991</v>
       </c>
       <c r="H38" s="72">
         <v>210</v>
       </c>
       <c r="I38" s="76">
-        <v>0.64484404761904746</v>
+        <v>0.64484404761904723</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -67062,13 +67062,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>113.4657500000001</v>
+        <v>113.46575000000017</v>
       </c>
       <c r="H39" s="72">
         <v>210</v>
       </c>
       <c r="I39" s="76">
-        <v>0.54031309523809568</v>
+        <v>0.54031309523809601</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -67091,13 +67091,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>43.967250000000014</v>
+        <v>43.96725</v>
       </c>
       <c r="H40" s="72">
         <v>210</v>
       </c>
       <c r="I40" s="76">
-        <v>0.20936785714285722</v>
+        <v>0.20936785714285713</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -67207,13 +67207,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>64.462500000000105</v>
+        <v>64.462500000000077</v>
       </c>
       <c r="H44" s="72">
         <v>210</v>
       </c>
       <c r="I44" s="76">
-        <v>0.30696428571428619</v>
+        <v>0.30696428571428608</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313250000000011</v>
+        <v>38.313249999999996</v>
       </c>
       <c r="H45" s="72">
         <v>210</v>
       </c>
       <c r="I45" s="76">
-        <v>0.18244404761904767</v>
+        <v>0.18244404761904759</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67265,13 +67265,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>338.52849999999967</v>
+        <v>338.52849999999995</v>
       </c>
       <c r="H46" s="72">
         <v>420</v>
       </c>
       <c r="I46" s="76">
-        <v>0.80602023809523726</v>
+        <v>0.80602023809523793</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>282.65450000000016</v>
+        <v>282.65450000000021</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.67298690476190515</v>
+        <v>0.67298690476190526</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>115.17525000000009</v>
+        <v>115.17525000000006</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
       </c>
       <c r="I48" s="76">
-        <v>0.54845357142857187</v>
+        <v>0.54845357142857176</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>135.03775000000005</v>
+        <v>135.0377500000001</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.643036904761905</v>
+        <v>0.64303690476190523</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>271.3504999999999</v>
+        <v>271.35049999999995</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.64607261904761881</v>
+        <v>0.64607261904761892</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>376.78799999999956</v>
+        <v>376.78800000000001</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89711428571428464</v>
+        <v>0.89711428571428575</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>302.65799999999945</v>
+        <v>302.6579999999995</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.48040952380952295</v>
+        <v>0.48040952380952301</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67468,13 +67468,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>381.88449999999995</v>
+        <v>381.88449999999983</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.60616587301587288</v>
+        <v>0.60616587301587277</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -67584,13 +67584,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>166.96600000000001</v>
+        <v>166.96599999999967</v>
       </c>
       <c r="H57" s="72">
         <v>210</v>
       </c>
       <c r="I57" s="76">
-        <v>0.79507619047619049</v>
+        <v>0.79507619047618894</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.13049999999997</v>
+        <v>126.1305000000001</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142842</v>
+        <v>0.60062142857142908</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.263999999999939</v>
+        <v>79.264000000000038</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.37744761904761875</v>
+        <v>0.37744761904761925</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>207.82499999999985</v>
+        <v>207.82500000000007</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.98964285714285638</v>
+        <v>0.98964285714285749</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67816,13 +67816,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>99.127750000000006</v>
+        <v>99.127750000000063</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.4720369047619048</v>
+        <v>0.47203690476190507</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -67845,13 +67845,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>71.546749999999975</v>
+        <v>71.546750000000003</v>
       </c>
       <c r="H66" s="72">
         <v>210</v>
       </c>
       <c r="I66" s="76">
-        <v>0.34069880952380938</v>
+        <v>0.34069880952380954</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -67874,7 +67874,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>110.01474999999992</v>
+        <v>110.01474999999991</v>
       </c>
       <c r="H67" s="72">
         <v>210</v>
@@ -67961,13 +67961,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.00174999999984</v>
+        <v>234.00174999999987</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
       </c>
       <c r="I70" s="76">
-        <v>0.55714702380952341</v>
+        <v>0.55714702380952352</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -67990,13 +67990,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>152.06025000000002</v>
+        <v>152.06025000000005</v>
       </c>
       <c r="H71" s="72">
         <v>420</v>
       </c>
       <c r="I71" s="76">
-        <v>0.36204821428571432</v>
+        <v>0.36204821428571443</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -68019,13 +68019,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.39524999999999</v>
+        <v>45.395250000000033</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285711</v>
+        <v>0.2161678571428573</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.67799999999999</v>
+        <v>56.678000000000011</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523802</v>
+        <v>0.26989523809523813</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000022</v>
+        <v>54.477749999999986</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.25941785714285726</v>
+        <v>0.25941785714285709</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68222,13 +68222,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.890000000000029</v>
+        <v>35.890000000000022</v>
       </c>
       <c r="H79" s="72">
         <v>210</v>
       </c>
       <c r="I79" s="76">
-        <v>0.17090476190476203</v>
+        <v>0.170904761904762</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -68309,13 +68309,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11725000000004</v>
+        <v>192.11724999999998</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904781</v>
+        <v>0.91484404761904758</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999991</v>
+        <v>168.25125000000006</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142814</v>
+        <v>0.80119642857142881</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999992</v>
+        <v>40.552000000000021</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476186</v>
+        <v>0.193104761904762</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S014/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S014/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2616,7 +2616,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.30292812487835674</v>
+        <v>0.3029281248783568</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2637,7 +2637,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.98964285714285749</v>
+        <v>0.98964285714285682</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2657,7 +2657,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.2015285714285713</v>
+        <v>1.2015285714285717</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8496,7 +8496,7 @@
         <v>54.964000000000013</v>
       </c>
       <c r="M28" s="72">
-        <v>94.826000000000022</v>
+        <v>94.826000000000008</v>
       </c>
       <c r="N28" s="72">
         <v>128.93</v>
@@ -8534,10 +8534,10 @@
         <v>70</v>
       </c>
       <c r="K29" s="72">
-        <v>57.414999999999999</v>
+        <v>57.415000000000006</v>
       </c>
       <c r="L29" s="72">
-        <v>105.24600000000001</v>
+        <v>105.246</v>
       </c>
       <c r="M29" s="72">
         <v>23.683999999999997</v>
@@ -8625,13 +8625,13 @@
         <v>13.203000000000001</v>
       </c>
       <c r="L31" s="72">
-        <v>102.77600000000001</v>
+        <v>102.776</v>
       </c>
       <c r="M31" s="72">
         <v>30.150000000000002</v>
       </c>
       <c r="N31" s="72">
-        <v>115.97900000000001</v>
+        <v>115.979</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="72">
-        <v>115.97900000000001</v>
+        <v>115.979</v>
       </c>
       <c r="N32" s="72">
         <v>0</v>
@@ -8833,13 +8833,13 @@
         <v>42.643000000000001</v>
       </c>
       <c r="L36" s="72">
-        <v>105.58600000000001</v>
+        <v>105.58600000000004</v>
       </c>
       <c r="M36" s="72">
         <v>27.128</v>
       </c>
       <c r="N36" s="72">
-        <v>148.22900000000001</v>
+        <v>148.22900000000004</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8874,16 +8874,16 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>68.543999999999983</v>
+        <v>68.544000000000011</v>
       </c>
       <c r="L37" s="72">
-        <v>54.208000000000027</v>
+        <v>54.20799999999997</v>
       </c>
       <c r="M37" s="72">
         <v>94.021000000000001</v>
       </c>
       <c r="N37" s="72">
-        <v>122.75200000000001</v>
+        <v>122.75199999999998</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8921,13 +8921,13 @@
         <v>56.633000000000003</v>
       </c>
       <c r="L38" s="72">
-        <v>100.37899999999996</v>
+        <v>100.37899999999999</v>
       </c>
       <c r="M38" s="72">
-        <v>22.372999999999998</v>
+        <v>22.373000000000001</v>
       </c>
       <c r="N38" s="72">
-        <v>157.01199999999997</v>
+        <v>157.012</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -9082,7 +9082,7 @@
         <v>70</v>
       </c>
       <c r="K42" s="72">
-        <v>94.152999999999992</v>
+        <v>94.15300000000002</v>
       </c>
       <c r="L42" s="72">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="72">
-        <v>94.152999999999992</v>
+        <v>94.15300000000002</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -9173,13 +9173,13 @@
         <v>29.439</v>
       </c>
       <c r="L44" s="72">
-        <v>102.83300000000006</v>
+        <v>102.83300000000003</v>
       </c>
       <c r="M44" s="72">
         <v>6.0840000000000005</v>
       </c>
       <c r="N44" s="72">
-        <v>132.27200000000005</v>
+        <v>132.27200000000002</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9220,7 +9220,7 @@
         <v>105.38900000000001</v>
       </c>
       <c r="M45" s="72">
-        <v>26.882999999999999</v>
+        <v>26.883000000000003</v>
       </c>
       <c r="N45" s="72">
         <v>147.71700000000001</v>
@@ -9264,7 +9264,7 @@
         <v>53.977000000000004</v>
       </c>
       <c r="M46" s="72">
-        <v>93.739999999999981</v>
+        <v>93.740000000000009</v>
       </c>
       <c r="N46" s="72">
         <v>121.548</v>
@@ -9302,10 +9302,10 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>56.182999999999993</v>
+        <v>56.183000000000007</v>
       </c>
       <c r="L47" s="72">
-        <v>99.41500000000002</v>
+        <v>99.415000000000006</v>
       </c>
       <c r="M47" s="72">
         <v>22.133000000000003</v>
@@ -9349,13 +9349,13 @@
         <v>10.722000000000001</v>
       </c>
       <c r="L48" s="72">
-        <v>116.73099999999997</v>
+        <v>116.73099999999999</v>
       </c>
       <c r="M48" s="72">
         <v>38.867000000000004</v>
       </c>
       <c r="N48" s="72">
-        <v>127.45299999999997</v>
+        <v>127.453</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9466,7 +9466,7 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>93.656999999999996</v>
+        <v>93.657000000000011</v>
       </c>
       <c r="L51" s="72">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="72">
-        <v>93.656999999999996</v>
+        <v>93.657000000000011</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9554,10 +9554,10 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>29.016000000000002</v>
+        <v>29.015999999999998</v>
       </c>
       <c r="L53" s="72">
-        <v>102.23300000000002</v>
+        <v>102.23300000000003</v>
       </c>
       <c r="M53" s="72">
         <v>6.0500000000000007</v>
@@ -14341,13 +14341,13 @@
         <v>2.3609999999999998</v>
       </c>
       <c r="L165" s="72">
-        <v>28.985000000000003</v>
+        <v>28.984999999999999</v>
       </c>
       <c r="M165" s="72">
         <v>20.3</v>
       </c>
       <c r="N165" s="72">
-        <v>31.346000000000004</v>
+        <v>31.346</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -14549,13 +14549,13 @@
         <v>21.29</v>
       </c>
       <c r="L170" s="72">
-        <v>54.134999999999998</v>
+        <v>54.135000000000012</v>
       </c>
       <c r="M170" s="72">
         <v>4.194</v>
       </c>
       <c r="N170" s="72">
-        <v>75.424999999999997</v>
+        <v>75.425000000000011</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14596,7 +14596,7 @@
         <v>58.697999999999993</v>
       </c>
       <c r="M171" s="72">
-        <v>16.727</v>
+        <v>16.727000000000004</v>
       </c>
       <c r="N171" s="72">
         <v>88.772999999999996</v>
@@ -14681,13 +14681,13 @@
         <v>18.802</v>
       </c>
       <c r="L173" s="72">
-        <v>26.496000000000002</v>
+        <v>26.495999999999995</v>
       </c>
       <c r="M173" s="72">
         <v>13.334</v>
       </c>
       <c r="N173" s="72">
-        <v>45.298000000000002</v>
+        <v>45.297999999999995</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -14842,7 +14842,7 @@
         <v>70</v>
       </c>
       <c r="K177" s="72">
-        <v>27.094999999999999</v>
+        <v>27.095000000000006</v>
       </c>
       <c r="L177" s="72">
         <v>0</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="N177" s="72">
-        <v>27.094999999999999</v>
+        <v>27.095000000000006</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -14974,7 +14974,7 @@
         <v>70</v>
       </c>
       <c r="K180" s="72">
-        <v>29.805999999999997</v>
+        <v>29.806000000000001</v>
       </c>
       <c r="L180" s="72">
         <v>58.024000000000015</v>
@@ -15018,10 +15018,10 @@
         <v>70</v>
       </c>
       <c r="K181" s="72">
-        <v>26.835999999999999</v>
+        <v>26.836000000000002</v>
       </c>
       <c r="L181" s="72">
-        <v>12.459000000000003</v>
+        <v>12.459</v>
       </c>
       <c r="M181" s="72">
         <v>75.371000000000009</v>
@@ -15065,13 +15065,13 @@
         <v>18.548999999999999</v>
       </c>
       <c r="L182" s="72">
-        <v>26.105000000000004</v>
+        <v>26.104999999999997</v>
       </c>
       <c r="M182" s="72">
         <v>13.190000000000001</v>
       </c>
       <c r="N182" s="72">
-        <v>44.654000000000003</v>
+        <v>44.653999999999996</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -15109,13 +15109,13 @@
         <v>2.1870000000000003</v>
       </c>
       <c r="L183" s="72">
-        <v>25.917000000000002</v>
+        <v>25.916999999999998</v>
       </c>
       <c r="M183" s="72">
-        <v>18.737000000000002</v>
+        <v>18.736999999999998</v>
       </c>
       <c r="N183" s="72">
-        <v>28.104000000000003</v>
+        <v>28.103999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -15156,7 +15156,7 @@
         <v>15.395999999999999</v>
       </c>
       <c r="M184" s="72">
-        <v>12.708000000000002</v>
+        <v>12.708</v>
       </c>
       <c r="N184" s="72">
         <v>17.04</v>
@@ -15226,7 +15226,7 @@
         <v>70</v>
       </c>
       <c r="K186" s="72">
-        <v>27.007000000000001</v>
+        <v>27.007000000000005</v>
       </c>
       <c r="L186" s="72">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="72">
-        <v>27.007000000000001</v>
+        <v>27.007000000000005</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -15270,10 +15270,10 @@
         <v>70</v>
       </c>
       <c r="K187" s="72">
-        <v>32.993000000000002</v>
+        <v>32.992999999999995</v>
       </c>
       <c r="L187" s="72">
-        <v>24.356000000000002</v>
+        <v>24.356000000000009</v>
       </c>
       <c r="M187" s="72">
         <v>2.6509999999999998</v>
@@ -15314,16 +15314,16 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>21.019000000000002</v>
+        <v>21.018999999999998</v>
       </c>
       <c r="L188" s="72">
-        <v>53.224000000000018</v>
+        <v>53.223999999999997</v>
       </c>
       <c r="M188" s="72">
         <v>4.125</v>
       </c>
       <c r="N188" s="72">
-        <v>74.243000000000023</v>
+        <v>74.242999999999995</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -15361,13 +15361,13 @@
         <v>29.564</v>
       </c>
       <c r="L189" s="72">
-        <v>57.755000000000003</v>
+        <v>57.755000000000017</v>
       </c>
       <c r="M189" s="72">
         <v>16.488</v>
       </c>
       <c r="N189" s="72">
-        <v>87.319000000000003</v>
+        <v>87.319000000000017</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -15449,13 +15449,13 @@
         <v>18.346</v>
       </c>
       <c r="L191" s="72">
-        <v>25.974</v>
+        <v>25.973999999999993</v>
       </c>
       <c r="M191" s="72">
-        <v>13.112000000000002</v>
+        <v>13.112</v>
       </c>
       <c r="N191" s="72">
-        <v>44.32</v>
+        <v>44.319999999999993</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -15610,7 +15610,7 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>26.753999999999998</v>
+        <v>26.754000000000001</v>
       </c>
       <c r="L195" s="72">
         <v>0</v>
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="72">
-        <v>26.753999999999998</v>
+        <v>26.754000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -20608,7 +20608,7 @@
         <v>8.2729999999999997</v>
       </c>
       <c r="M312" s="72">
-        <v>94.825000000000017</v>
+        <v>94.825000000000003</v>
       </c>
       <c r="N312" s="72">
         <v>23.683</v>
@@ -20813,13 +20813,13 @@
         <v>24.673999999999999</v>
       </c>
       <c r="L317" s="72">
-        <v>82.787000000000006</v>
+        <v>82.786999999999978</v>
       </c>
       <c r="M317" s="72">
         <v>6.0919999999999996</v>
       </c>
       <c r="N317" s="72">
-        <v>107.46100000000001</v>
+        <v>107.46099999999998</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -20854,16 +20854,16 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>21.902000000000001</v>
+        <v>21.901999999999997</v>
       </c>
       <c r="L318" s="72">
-        <v>80.332999999999984</v>
+        <v>80.332999999999998</v>
       </c>
       <c r="M318" s="72">
         <v>27.128</v>
       </c>
       <c r="N318" s="72">
-        <v>102.23499999999999</v>
+        <v>102.235</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -20901,13 +20901,13 @@
         <v>14.152999999999999</v>
       </c>
       <c r="L319" s="72">
-        <v>8.2180000000000035</v>
+        <v>8.218</v>
       </c>
       <c r="M319" s="72">
         <v>94.016999999999996</v>
       </c>
       <c r="N319" s="72">
-        <v>22.371000000000002</v>
+        <v>22.370999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="M320" s="72">
-        <v>22.371000000000002</v>
+        <v>22.370999999999999</v>
       </c>
       <c r="N320" s="72">
         <v>0</v>
@@ -21018,7 +21018,7 @@
         <v>70</v>
       </c>
       <c r="K322" s="72">
-        <v>77.864999999999981</v>
+        <v>77.865000000000009</v>
       </c>
       <c r="L322" s="72">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="N322" s="72">
-        <v>77.864999999999981</v>
+        <v>77.865000000000009</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -21150,13 +21150,13 @@
         <v>70</v>
       </c>
       <c r="K325" s="72">
-        <v>21.753999999999998</v>
+        <v>21.754000000000001</v>
       </c>
       <c r="L325" s="72">
         <v>80.177999999999997</v>
       </c>
       <c r="M325" s="72">
-        <v>26.882999999999999</v>
+        <v>26.883000000000003</v>
       </c>
       <c r="N325" s="72">
         <v>101.932</v>
@@ -21194,13 +21194,13 @@
         <v>70</v>
       </c>
       <c r="K326" s="72">
-        <v>13.939</v>
+        <v>13.939000000000002</v>
       </c>
       <c r="L326" s="72">
-        <v>8.1930000000000014</v>
+        <v>8.1929999999999996</v>
       </c>
       <c r="M326" s="72">
-        <v>93.73899999999999</v>
+        <v>93.739000000000004</v>
       </c>
       <c r="N326" s="72">
         <v>22.132000000000001</v>
@@ -21358,10 +21358,10 @@
         <v>70</v>
       </c>
       <c r="K330" s="72">
-        <v>17.495000000000005</v>
+        <v>17.494999999999997</v>
       </c>
       <c r="L330" s="72">
-        <v>70.61</v>
+        <v>70.610000000000014</v>
       </c>
       <c r="M330" s="72">
         <v>6.8460000000000001</v>
@@ -21402,7 +21402,7 @@
         <v>70</v>
       </c>
       <c r="K331" s="72">
-        <v>24.175000000000004</v>
+        <v>24.174999999999997</v>
       </c>
       <c r="L331" s="72">
         <v>82.055000000000007</v>
@@ -25297,13 +25297,13 @@
         <v>4.8510000000000009</v>
       </c>
       <c r="L423" s="72">
-        <v>33.200000000000003</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="M423" s="72">
-        <v>31.077000000000002</v>
+        <v>31.076999999999998</v>
       </c>
       <c r="N423" s="72">
-        <v>38.051000000000002</v>
+        <v>38.050999999999995</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
@@ -25341,13 +25341,13 @@
         <v>2.2880000000000003</v>
       </c>
       <c r="L424" s="72">
-        <v>22.542000000000002</v>
+        <v>22.541999999999998</v>
       </c>
       <c r="M424" s="72">
         <v>15.509</v>
       </c>
       <c r="N424" s="72">
-        <v>24.830000000000002</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -25388,7 +25388,7 @@
         <v>13.983000000000001</v>
       </c>
       <c r="M425" s="72">
-        <v>10.847000000000001</v>
+        <v>10.847</v>
       </c>
       <c r="N425" s="72">
         <v>15.722</v>
@@ -25593,13 +25593,13 @@
         <v>4.7249999999999996</v>
       </c>
       <c r="L430" s="72">
-        <v>30.526999999999994</v>
+        <v>30.527000000000001</v>
       </c>
       <c r="M430" s="72">
         <v>28.945</v>
       </c>
       <c r="N430" s="72">
-        <v>35.251999999999995</v>
+        <v>35.252000000000002</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -25640,7 +25640,7 @@
         <v>20.76</v>
       </c>
       <c r="M431" s="72">
-        <v>14.492000000000001</v>
+        <v>14.491999999999999</v>
       </c>
       <c r="N431" s="72">
         <v>22.967000000000002</v>
@@ -25754,7 +25754,7 @@
         <v>70</v>
       </c>
       <c r="K434" s="72">
-        <v>26.93</v>
+        <v>26.930000000000007</v>
       </c>
       <c r="L434" s="72">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="N434" s="72">
-        <v>26.93</v>
+        <v>26.930000000000007</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
@@ -25798,13 +25798,13 @@
         <v>70</v>
       </c>
       <c r="K435" s="72">
-        <v>36.790999999999997</v>
+        <v>36.791000000000004</v>
       </c>
       <c r="L435" s="72">
-        <v>16.935000000000002</v>
+        <v>16.934999999999995</v>
       </c>
       <c r="M435" s="72">
-        <v>9.995000000000001</v>
+        <v>9.9949999999999992</v>
       </c>
       <c r="N435" s="72">
         <v>53.725999999999999</v>
@@ -25842,13 +25842,13 @@
         <v>70</v>
       </c>
       <c r="K436" s="72">
-        <v>47.253</v>
+        <v>47.252999999999986</v>
       </c>
       <c r="L436" s="72">
-        <v>11.428999999999995</v>
+        <v>11.429000000000009</v>
       </c>
       <c r="M436" s="72">
-        <v>42.297000000000004</v>
+        <v>42.296999999999997</v>
       </c>
       <c r="N436" s="72">
         <v>58.681999999999995</v>
@@ -25889,13 +25889,13 @@
         <v>4.6760000000000002</v>
       </c>
       <c r="L437" s="72">
-        <v>30.101999999999997</v>
+        <v>30.10199999999999</v>
       </c>
       <c r="M437" s="72">
         <v>28.58</v>
       </c>
       <c r="N437" s="72">
-        <v>34.777999999999999</v>
+        <v>34.777999999999992</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
@@ -25936,7 +25936,7 @@
         <v>20.471</v>
       </c>
       <c r="M438" s="72">
-        <v>14.306999999999999</v>
+        <v>14.307000000000002</v>
       </c>
       <c r="N438" s="72">
         <v>22.646000000000001</v>
@@ -25977,13 +25977,13 @@
         <v>1.6300000000000001</v>
       </c>
       <c r="L439" s="72">
-        <v>12.624000000000001</v>
+        <v>12.623999999999997</v>
       </c>
       <c r="M439" s="72">
         <v>10.022</v>
       </c>
       <c r="N439" s="72">
-        <v>14.254000000000001</v>
+        <v>14.253999999999998</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
@@ -26094,10 +26094,10 @@
         <v>70</v>
       </c>
       <c r="K442" s="72">
-        <v>36.393999999999998</v>
+        <v>36.394000000000005</v>
       </c>
       <c r="L442" s="72">
-        <v>16.812000000000005</v>
+        <v>16.811999999999998</v>
       </c>
       <c r="M442" s="72">
         <v>9.9009999999999998</v>
@@ -26138,16 +26138,16 @@
         <v>70</v>
       </c>
       <c r="K443" s="72">
-        <v>46.838000000000001</v>
+        <v>46.838000000000008</v>
       </c>
       <c r="L443" s="72">
-        <v>11.335999999999999</v>
+        <v>11.335999999999984</v>
       </c>
       <c r="M443" s="72">
         <v>41.870000000000005</v>
       </c>
       <c r="N443" s="72">
-        <v>58.173999999999999</v>
+        <v>58.173999999999992</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
@@ -29784,7 +29784,7 @@
         <v>86.092000000000013</v>
       </c>
       <c r="M529" s="72">
-        <v>24.296000000000003</v>
+        <v>24.295999999999999</v>
       </c>
       <c r="N529" s="72">
         <v>97.533000000000015</v>
@@ -29825,13 +29825,13 @@
         <v>6.2489999999999997</v>
       </c>
       <c r="L530" s="72">
-        <v>29.071000000000002</v>
+        <v>29.071000000000009</v>
       </c>
       <c r="M530" s="72">
         <v>68.462000000000003</v>
       </c>
       <c r="N530" s="72">
-        <v>35.32</v>
+        <v>35.320000000000007</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.25">
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
       <c r="M531" s="72">
-        <v>35.32</v>
+        <v>35.320000000000007</v>
       </c>
       <c r="N531" s="72">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>85.082999999999998</v>
+        <v>85.083000000000027</v>
       </c>
       <c r="L533" s="72">
         <v>36.376999999999995</v>
@@ -29951,7 +29951,7 @@
         <v>5.1099999999999994</v>
       </c>
       <c r="N533" s="72">
-        <v>121.46</v>
+        <v>121.46000000000002</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
@@ -29986,16 +29986,16 @@
         <v>70</v>
       </c>
       <c r="K534" s="72">
-        <v>27.558999999999997</v>
+        <v>27.559000000000001</v>
       </c>
       <c r="L534" s="72">
-        <v>97.055000000000007</v>
+        <v>97.055000000000021</v>
       </c>
       <c r="M534" s="72">
         <v>24.405000000000001</v>
       </c>
       <c r="N534" s="72">
-        <v>124.614</v>
+        <v>124.61400000000002</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
@@ -30077,13 +30077,13 @@
         <v>10.149000000000001</v>
       </c>
       <c r="L536" s="72">
-        <v>77.200000000000017</v>
+        <v>77.199999999999989</v>
       </c>
       <c r="M536" s="72">
         <v>22.091000000000001</v>
       </c>
       <c r="N536" s="72">
-        <v>87.349000000000018</v>
+        <v>87.34899999999999</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
@@ -30124,10 +30124,10 @@
         <v>25.906999999999996</v>
       </c>
       <c r="M537" s="72">
-        <v>61.441999999999993</v>
+        <v>61.442</v>
       </c>
       <c r="N537" s="72">
-        <v>31.024999999999999</v>
+        <v>31.024999999999995</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="72">
-        <v>31.024999999999999</v>
+        <v>31.024999999999995</v>
       </c>
       <c r="N538" s="72">
         <v>0</v>
@@ -30241,13 +30241,13 @@
         <v>83.472999999999985</v>
       </c>
       <c r="L540" s="72">
-        <v>35.809000000000012</v>
+        <v>35.809000000000026</v>
       </c>
       <c r="M540" s="72">
         <v>5.0369999999999999</v>
       </c>
       <c r="N540" s="72">
-        <v>119.282</v>
+        <v>119.28200000000001</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30282,16 +30282,16 @@
         <v>70</v>
       </c>
       <c r="K541" s="72">
-        <v>27.096</v>
+        <v>27.095999999999997</v>
       </c>
       <c r="L541" s="72">
-        <v>95.288000000000011</v>
+        <v>95.287999999999982</v>
       </c>
       <c r="M541" s="72">
         <v>23.994</v>
       </c>
       <c r="N541" s="72">
-        <v>122.38400000000001</v>
+        <v>122.38399999999999</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -30329,13 +30329,13 @@
         <v>76.312999999999988</v>
       </c>
       <c r="L542" s="72">
-        <v>21.173000000000002</v>
+        <v>21.17300000000003</v>
       </c>
       <c r="M542" s="72">
-        <v>101.211</v>
+        <v>101.21099999999998</v>
       </c>
       <c r="N542" s="72">
-        <v>97.48599999999999</v>
+        <v>97.486000000000018</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.25">
@@ -30370,16 +30370,16 @@
         <v>70</v>
       </c>
       <c r="K543" s="72">
-        <v>9.9109999999999996</v>
+        <v>9.9110000000000014</v>
       </c>
       <c r="L543" s="72">
-        <v>75.751999999999981</v>
+        <v>75.75200000000001</v>
       </c>
       <c r="M543" s="72">
         <v>21.734000000000002</v>
       </c>
       <c r="N543" s="72">
-        <v>85.662999999999982</v>
+        <v>85.663000000000011</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.25">
@@ -30537,13 +30537,13 @@
         <v>82.649000000000001</v>
       </c>
       <c r="L547" s="72">
-        <v>35.589999999999989</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="M547" s="72">
         <v>5.0060000000000002</v>
       </c>
       <c r="N547" s="72">
-        <v>118.23899999999999</v>
+        <v>118.239</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -30578,7 +30578,7 @@
         <v>70</v>
       </c>
       <c r="K548" s="72">
-        <v>26.803000000000004</v>
+        <v>26.803000000000001</v>
       </c>
       <c r="L548" s="72">
         <v>94.454999999999984</v>
@@ -30587,7 +30587,7 @@
         <v>23.783999999999999</v>
       </c>
       <c r="N548" s="72">
-        <v>121.258</v>
+        <v>121.25799999999998</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -30625,13 +30625,13 @@
         <v>75.695999999999998</v>
       </c>
       <c r="L549" s="72">
-        <v>21.00200000000001</v>
+        <v>21.002000000000024</v>
       </c>
       <c r="M549" s="72">
         <v>100.256</v>
       </c>
       <c r="N549" s="72">
-        <v>96.698000000000008</v>
+        <v>96.698000000000022</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.25">
@@ -34517,13 +34517,13 @@
         <v>5.9950000000000001</v>
       </c>
       <c r="L641" s="72">
-        <v>89.006</v>
+        <v>89.005999999999986</v>
       </c>
       <c r="M641" s="72">
-        <v>24.236999999999995</v>
+        <v>24.237000000000002</v>
       </c>
       <c r="N641" s="72">
-        <v>95.001000000000005</v>
+        <v>95.000999999999991</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.25">
@@ -34564,7 +34564,7 @@
         <v>27.900000000000002</v>
       </c>
       <c r="M642" s="72">
-        <v>67.100999999999985</v>
+        <v>67.100999999999999</v>
       </c>
       <c r="N642" s="72">
         <v>33.862000000000002</v>
@@ -34681,13 +34681,13 @@
         <v>80.213999999999999</v>
       </c>
       <c r="L645" s="72">
-        <v>33.398000000000025</v>
+        <v>33.397999999999996</v>
       </c>
       <c r="M645" s="72">
         <v>5.0709999999999997</v>
       </c>
       <c r="N645" s="72">
-        <v>113.61200000000002</v>
+        <v>113.61199999999999</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.25">
@@ -34725,13 +34725,13 @@
         <v>47.373999999999995</v>
       </c>
       <c r="L646" s="72">
-        <v>88.988000000000028</v>
+        <v>88.988</v>
       </c>
       <c r="M646" s="72">
         <v>24.624000000000002</v>
       </c>
       <c r="N646" s="72">
-        <v>136.36200000000002</v>
+        <v>136.36199999999999</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
@@ -34769,13 +34769,13 @@
         <v>79.566000000000003</v>
       </c>
       <c r="L647" s="72">
-        <v>23.591999999999999</v>
+        <v>23.592000000000013</v>
       </c>
       <c r="M647" s="72">
         <v>112.77000000000001</v>
       </c>
       <c r="N647" s="72">
-        <v>103.158</v>
+        <v>103.15800000000002</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.25">
@@ -34810,16 +34810,16 @@
         <v>70</v>
       </c>
       <c r="K648" s="72">
-        <v>5.4050000000000002</v>
+        <v>5.4050000000000011</v>
       </c>
       <c r="L648" s="72">
-        <v>80.475000000000009</v>
+        <v>80.474999999999994</v>
       </c>
       <c r="M648" s="72">
         <v>22.683</v>
       </c>
       <c r="N648" s="72">
-        <v>85.88000000000001</v>
+        <v>85.88</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.25">
@@ -34974,10 +34974,10 @@
         <v>70</v>
       </c>
       <c r="K652" s="72">
-        <v>78.687000000000012</v>
+        <v>78.686999999999998</v>
       </c>
       <c r="L652" s="72">
-        <v>32.870999999999981</v>
+        <v>32.870999999999995</v>
       </c>
       <c r="M652" s="72">
         <v>4.9979999999999993</v>
@@ -35018,13 +35018,13 @@
         <v>70</v>
       </c>
       <c r="K653" s="72">
-        <v>46.639999999999993</v>
+        <v>46.64</v>
       </c>
       <c r="L653" s="72">
-        <v>87.357000000000028</v>
+        <v>87.357000000000014</v>
       </c>
       <c r="M653" s="72">
-        <v>24.201000000000004</v>
+        <v>24.200999999999997</v>
       </c>
       <c r="N653" s="72">
         <v>133.99700000000001</v>
@@ -35068,7 +35068,7 @@
         <v>23.230000000000004</v>
       </c>
       <c r="M654" s="72">
-        <v>110.76700000000001</v>
+        <v>110.767</v>
       </c>
       <c r="N654" s="72">
         <v>101.49299999999999</v>
@@ -35106,7 +35106,7 @@
         <v>70</v>
       </c>
       <c r="K655" s="72">
-        <v>5.3</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="L655" s="72">
         <v>79.082000000000008</v>
@@ -35153,13 +35153,13 @@
         <v>4.6790000000000003</v>
       </c>
       <c r="L656" s="72">
-        <v>24.599000000000004</v>
+        <v>24.598999999999997</v>
       </c>
       <c r="M656" s="72">
-        <v>59.783000000000001</v>
+        <v>59.782999999999994</v>
       </c>
       <c r="N656" s="72">
-        <v>29.278000000000002</v>
+        <v>29.277999999999999</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="72">
-        <v>29.278000000000002</v>
+        <v>29.277999999999999</v>
       </c>
       <c r="N657" s="72">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>70</v>
       </c>
       <c r="K658" s="72">
-        <v>37.635000000000005</v>
+        <v>37.634999999999991</v>
       </c>
       <c r="L658" s="72">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N658" s="72">
-        <v>37.635000000000005</v>
+        <v>37.634999999999991</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
@@ -35320,7 +35320,7 @@
         <v>86.588999999999984</v>
       </c>
       <c r="M660" s="72">
-        <v>23.988999999999997</v>
+        <v>23.989000000000001</v>
       </c>
       <c r="N660" s="72">
         <v>132.69299999999998</v>
@@ -35364,7 +35364,7 @@
         <v>23.022000000000006</v>
       </c>
       <c r="M661" s="72">
-        <v>109.67100000000001</v>
+        <v>109.67100000000002</v>
       </c>
       <c r="N661" s="72">
         <v>100.72199999999999</v>
@@ -39432,7 +39432,7 @@
         <v>50.914999999999992</v>
       </c>
       <c r="M757" s="72">
-        <v>45.11</v>
+        <v>45.110000000000007</v>
       </c>
       <c r="N757" s="72">
         <v>65.733999999999995</v>
@@ -39473,13 +39473,13 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="L758" s="72">
-        <v>30.389000000000003</v>
+        <v>30.388999999999996</v>
       </c>
       <c r="M758" s="72">
         <v>35.344999999999999</v>
       </c>
       <c r="N758" s="72">
-        <v>31.062000000000005</v>
+        <v>31.061999999999994</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.25">
@@ -39517,7 +39517,7 @@
         <v>0</v>
       </c>
       <c r="M759" s="72">
-        <v>31.062000000000005</v>
+        <v>31.061999999999994</v>
       </c>
       <c r="N759" s="72">
         <v>0</v>
@@ -39678,13 +39678,13 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>50.588000000000001</v>
+        <v>50.587999999999994</v>
       </c>
       <c r="L763" s="72">
         <v>70.443000000000012</v>
       </c>
       <c r="M763" s="72">
-        <v>21.043999999999997</v>
+        <v>21.044</v>
       </c>
       <c r="N763" s="72">
         <v>121.03100000000001</v>
@@ -39722,10 +39722,10 @@
         <v>70</v>
       </c>
       <c r="K764" s="72">
-        <v>49.055</v>
+        <v>49.054999999999993</v>
       </c>
       <c r="L764" s="72">
-        <v>40.975000000000001</v>
+        <v>40.975000000000009</v>
       </c>
       <c r="M764" s="72">
         <v>80.056000000000012</v>
@@ -39766,16 +39766,16 @@
         <v>70</v>
       </c>
       <c r="K765" s="72">
-        <v>13.580000000000002</v>
+        <v>13.58</v>
       </c>
       <c r="L765" s="72">
-        <v>65.965999999999994</v>
+        <v>65.966000000000008</v>
       </c>
       <c r="M765" s="72">
         <v>24.064</v>
       </c>
       <c r="N765" s="72">
-        <v>79.545999999999992</v>
+        <v>79.546000000000006</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.25">
@@ -39810,7 +39810,7 @@
         <v>70</v>
       </c>
       <c r="K766" s="72">
-        <v>12.613000000000001</v>
+        <v>12.613</v>
       </c>
       <c r="L766" s="72">
         <v>42.305</v>
@@ -39857,13 +39857,13 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="L767" s="72">
-        <v>25.88</v>
+        <v>25.880000000000003</v>
       </c>
       <c r="M767" s="72">
-        <v>29.038</v>
+        <v>29.037999999999997</v>
       </c>
       <c r="N767" s="72">
-        <v>26.431999999999999</v>
+        <v>26.432000000000002</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.25">
@@ -39901,7 +39901,7 @@
         <v>0</v>
       </c>
       <c r="M768" s="72">
-        <v>26.431999999999999</v>
+        <v>26.432000000000002</v>
       </c>
       <c r="N768" s="72">
         <v>0</v>
@@ -39974,16 +39974,16 @@
         <v>70</v>
       </c>
       <c r="K770" s="72">
-        <v>38.823</v>
+        <v>38.823000000000008</v>
       </c>
       <c r="L770" s="72">
-        <v>41.884000000000007</v>
+        <v>41.883999999999986</v>
       </c>
       <c r="M770" s="72">
         <v>0.46100000000000002</v>
       </c>
       <c r="N770" s="72">
-        <v>80.707000000000008</v>
+        <v>80.706999999999994</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -40150,16 +40150,16 @@
         <v>70</v>
       </c>
       <c r="K774" s="72">
-        <v>13.298</v>
+        <v>13.297999999999998</v>
       </c>
       <c r="L774" s="72">
-        <v>63.510000000000019</v>
+        <v>63.509999999999991</v>
       </c>
       <c r="M774" s="72">
-        <v>23.686</v>
+        <v>23.685999999999996</v>
       </c>
       <c r="N774" s="72">
-        <v>76.808000000000021</v>
+        <v>76.807999999999993</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.25">
@@ -40194,7 +40194,7 @@
         <v>70</v>
       </c>
       <c r="K775" s="72">
-        <v>12.231999999999999</v>
+        <v>12.232000000000001</v>
       </c>
       <c r="L775" s="72">
         <v>40.881999999999998</v>
@@ -40241,13 +40241,13 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="L776" s="72">
-        <v>25.128</v>
+        <v>25.128000000000004</v>
       </c>
       <c r="M776" s="72">
-        <v>27.986000000000001</v>
+        <v>27.985999999999997</v>
       </c>
       <c r="N776" s="72">
-        <v>25.658999999999999</v>
+        <v>25.659000000000002</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.25">
@@ -40285,7 +40285,7 @@
         <v>0</v>
       </c>
       <c r="M777" s="72">
-        <v>25.658999999999999</v>
+        <v>25.659000000000002</v>
       </c>
       <c r="N777" s="72">
         <v>0</v>
@@ -40358,10 +40358,10 @@
         <v>70</v>
       </c>
       <c r="K779" s="72">
-        <v>38.677</v>
+        <v>38.676999999999992</v>
       </c>
       <c r="L779" s="72">
-        <v>41.777000000000008</v>
+        <v>41.777000000000015</v>
       </c>
       <c r="M779" s="72">
         <v>0.46</v>
@@ -40402,16 +40402,16 @@
         <v>70</v>
       </c>
       <c r="K780" s="72">
-        <v>28.506999999999998</v>
+        <v>28.507000000000001</v>
       </c>
       <c r="L780" s="72">
-        <v>61.562000000000005</v>
+        <v>61.562000000000012</v>
       </c>
       <c r="M780" s="72">
-        <v>18.891999999999999</v>
+        <v>18.892000000000003</v>
       </c>
       <c r="N780" s="72">
-        <v>90.069000000000003</v>
+        <v>90.069000000000017</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
@@ -40446,7 +40446,7 @@
         <v>70</v>
       </c>
       <c r="K781" s="72">
-        <v>47.827999999999996</v>
+        <v>47.828000000000003</v>
       </c>
       <c r="L781" s="72">
         <v>69.287000000000006</v>
@@ -40493,13 +40493,13 @@
         <v>47.716999999999999</v>
       </c>
       <c r="L782" s="72">
-        <v>38.857000000000014</v>
+        <v>38.856999999999985</v>
       </c>
       <c r="M782" s="72">
         <v>78.25800000000001</v>
       </c>
       <c r="N782" s="72">
-        <v>86.574000000000012</v>
+        <v>86.573999999999984</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.25">
@@ -40537,13 +40537,13 @@
         <v>13.116</v>
       </c>
       <c r="L783" s="72">
-        <v>63.00500000000001</v>
+        <v>63.004999999999995</v>
       </c>
       <c r="M783" s="72">
         <v>23.568999999999999</v>
       </c>
       <c r="N783" s="72">
-        <v>76.121000000000009</v>
+        <v>76.120999999999995</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.25">
@@ -40745,13 +40745,13 @@
         <v>38.248000000000005</v>
       </c>
       <c r="L788" s="72">
-        <v>41.47</v>
+        <v>41.470000000000013</v>
       </c>
       <c r="M788" s="72">
         <v>0.45600000000000002</v>
       </c>
       <c r="N788" s="72">
-        <v>79.718000000000004</v>
+        <v>79.718000000000018</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
@@ -40789,13 +40789,13 @@
         <v>27.926000000000002</v>
       </c>
       <c r="L789" s="72">
-        <v>61.017999999999986</v>
+        <v>61.018000000000015</v>
       </c>
       <c r="M789" s="72">
         <v>18.700000000000003</v>
       </c>
       <c r="N789" s="72">
-        <v>88.943999999999988</v>
+        <v>88.944000000000017</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.25">
@@ -45570,16 +45570,16 @@
         <v>70</v>
       </c>
       <c r="K901" s="72">
-        <v>17.014000000000003</v>
+        <v>17.013999999999999</v>
       </c>
       <c r="L901" s="72">
-        <v>54.187999999999995</v>
+        <v>54.188000000000017</v>
       </c>
       <c r="M901" s="72">
         <v>42.323999999999998</v>
       </c>
       <c r="N901" s="72">
-        <v>71.201999999999998</v>
+        <v>71.202000000000012</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
@@ -45822,10 +45822,10 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>33.617000000000004</v>
+        <v>33.616999999999997</v>
       </c>
       <c r="L907" s="72">
-        <v>73.266000000000005</v>
+        <v>73.26600000000002</v>
       </c>
       <c r="M907" s="72">
         <v>18.058999999999997</v>
@@ -45869,13 +45869,13 @@
         <v>46.608000000000004</v>
       </c>
       <c r="L908" s="72">
-        <v>39.918000000000006</v>
+        <v>39.917999999999992</v>
       </c>
       <c r="M908" s="72">
         <v>66.965000000000003</v>
       </c>
       <c r="N908" s="72">
-        <v>86.52600000000001</v>
+        <v>86.525999999999996</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -46001,13 +46001,13 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="L911" s="72">
-        <v>29.552000000000007</v>
+        <v>29.552</v>
       </c>
       <c r="M911" s="72">
         <v>29.942999999999998</v>
       </c>
       <c r="N911" s="72">
-        <v>30.318000000000005</v>
+        <v>30.318000000000001</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.25">
@@ -46045,7 +46045,7 @@
         <v>0</v>
       </c>
       <c r="M912" s="72">
-        <v>30.318000000000005</v>
+        <v>30.318000000000001</v>
       </c>
       <c r="N912" s="72">
         <v>0</v>
@@ -46074,7 +46074,7 @@
         <v>70</v>
       </c>
       <c r="K913" s="72">
-        <v>43.072000000000003</v>
+        <v>43.071999999999996</v>
       </c>
       <c r="L913" s="72">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="N913" s="72">
-        <v>43.072000000000003</v>
+        <v>43.071999999999996</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
@@ -46118,16 +46118,16 @@
         <v>70</v>
       </c>
       <c r="K914" s="72">
-        <v>41.561</v>
+        <v>41.561000000000007</v>
       </c>
       <c r="L914" s="72">
-        <v>42.722000000000001</v>
+        <v>42.722000000000008</v>
       </c>
       <c r="M914" s="72">
         <v>0.35000000000000003</v>
       </c>
       <c r="N914" s="72">
-        <v>84.283000000000001</v>
+        <v>84.283000000000015</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.25">
@@ -46168,7 +46168,7 @@
         <v>60.373000000000012</v>
       </c>
       <c r="M915" s="72">
-        <v>23.910000000000004</v>
+        <v>23.91</v>
       </c>
       <c r="N915" s="72">
         <v>90.109000000000009</v>
@@ -46206,7 +46206,7 @@
         <v>70</v>
       </c>
       <c r="K916" s="72">
-        <v>31.721999999999998</v>
+        <v>31.722000000000001</v>
       </c>
       <c r="L916" s="72">
         <v>72.197000000000003</v>
@@ -46215,7 +46215,7 @@
         <v>17.911999999999999</v>
       </c>
       <c r="N916" s="72">
-        <v>103.919</v>
+        <v>103.91900000000001</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
@@ -46250,13 +46250,13 @@
         <v>70</v>
       </c>
       <c r="K917" s="72">
-        <v>45.417999999999992</v>
+        <v>45.418000000000006</v>
       </c>
       <c r="L917" s="72">
-        <v>38.063000000000002</v>
+        <v>38.062999999999988</v>
       </c>
       <c r="M917" s="72">
-        <v>65.856000000000009</v>
+        <v>65.855999999999995</v>
       </c>
       <c r="N917" s="72">
         <v>83.480999999999995</v>
@@ -46300,7 +46300,7 @@
         <v>56.960999999999999</v>
       </c>
       <c r="M918" s="72">
-        <v>26.52</v>
+        <v>26.520000000000003</v>
       </c>
       <c r="N918" s="72">
         <v>75.421999999999997</v>
@@ -46338,16 +46338,16 @@
         <v>70</v>
       </c>
       <c r="K919" s="72">
-        <v>13.922999999999998</v>
+        <v>13.923000000000002</v>
       </c>
       <c r="L919" s="72">
-        <v>43.617000000000004</v>
+        <v>43.61699999999999</v>
       </c>
       <c r="M919" s="72">
         <v>31.805</v>
       </c>
       <c r="N919" s="72">
-        <v>57.540000000000006</v>
+        <v>57.539999999999992</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.25">
@@ -46458,7 +46458,7 @@
         <v>70</v>
       </c>
       <c r="K922" s="72">
-        <v>42.947000000000003</v>
+        <v>42.946999999999996</v>
       </c>
       <c r="L922" s="72">
         <v>0</v>
@@ -46467,7 +46467,7 @@
         <v>0</v>
       </c>
       <c r="N922" s="72">
-        <v>42.947000000000003</v>
+        <v>42.946999999999996</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.25">
@@ -46502,10 +46502,10 @@
         <v>70</v>
       </c>
       <c r="K923" s="72">
-        <v>41.397000000000006</v>
+        <v>41.396999999999991</v>
       </c>
       <c r="L923" s="72">
-        <v>42.597999999999999</v>
+        <v>42.598000000000013</v>
       </c>
       <c r="M923" s="72">
         <v>0.34900000000000003</v>
@@ -46546,7 +46546,7 @@
         <v>70</v>
       </c>
       <c r="K924" s="72">
-        <v>29.534000000000002</v>
+        <v>29.534000000000006</v>
       </c>
       <c r="L924" s="72">
         <v>60.197999999999993</v>
@@ -46637,13 +46637,13 @@
         <v>45.144000000000005</v>
       </c>
       <c r="L926" s="72">
-        <v>37.676999999999992</v>
+        <v>37.677000000000007</v>
       </c>
       <c r="M926" s="72">
-        <v>65.515000000000015</v>
+        <v>65.515000000000001</v>
       </c>
       <c r="N926" s="72">
-        <v>82.820999999999998</v>
+        <v>82.821000000000012</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.25">
@@ -46678,16 +46678,16 @@
         <v>70</v>
       </c>
       <c r="K927" s="72">
-        <v>18.111000000000001</v>
+        <v>18.111000000000004</v>
       </c>
       <c r="L927" s="72">
-        <v>56.44</v>
+        <v>56.440000000000012</v>
       </c>
       <c r="M927" s="72">
         <v>26.381</v>
       </c>
       <c r="N927" s="72">
-        <v>74.551000000000002</v>
+        <v>74.551000000000016</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -46842,7 +46842,7 @@
         <v>70</v>
       </c>
       <c r="K931" s="72">
-        <v>42.597000000000008</v>
+        <v>42.596999999999994</v>
       </c>
       <c r="L931" s="72">
         <v>0</v>
@@ -46851,7 +46851,7 @@
         <v>0</v>
       </c>
       <c r="N931" s="72">
-        <v>42.597000000000008</v>
+        <v>42.596999999999994</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.25">
@@ -46889,13 +46889,13 @@
         <v>40.814999999999998</v>
       </c>
       <c r="L932" s="72">
-        <v>42.25</v>
+        <v>42.250000000000014</v>
       </c>
       <c r="M932" s="72">
         <v>0.34700000000000003</v>
       </c>
       <c r="N932" s="72">
-        <v>83.064999999999998</v>
+        <v>83.065000000000012</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.25">
@@ -46936,7 +46936,7 @@
         <v>59.563000000000002</v>
       </c>
       <c r="M933" s="72">
-        <v>23.502000000000002</v>
+        <v>23.501999999999999</v>
       </c>
       <c r="N933" s="72">
         <v>88.322000000000003</v>
@@ -51714,7 +51714,7 @@
         <v>70</v>
       </c>
       <c r="K1045" s="72">
-        <v>8.9730000000000008</v>
+        <v>8.972999999999999</v>
       </c>
       <c r="L1045" s="72">
         <v>49.650000000000006</v>
@@ -51966,7 +51966,7 @@
         <v>70</v>
       </c>
       <c r="K1051" s="72">
-        <v>56.196000000000005</v>
+        <v>56.195999999999998</v>
       </c>
       <c r="L1051" s="72">
         <v>81.859999999999985</v>
@@ -52057,13 +52057,13 @@
         <v>31.768999999999998</v>
       </c>
       <c r="L1053" s="72">
-        <v>36.823</v>
+        <v>36.823000000000015</v>
       </c>
       <c r="M1053" s="72">
         <v>23.100999999999999</v>
       </c>
       <c r="N1053" s="72">
-        <v>68.591999999999999</v>
+        <v>68.592000000000013</v>
       </c>
     </row>
     <row r="1054" spans="1:14" x14ac:dyDescent="0.25">
@@ -52098,13 +52098,13 @@
         <v>70</v>
       </c>
       <c r="K1054" s="72">
-        <v>7.7760000000000007</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="L1054" s="72">
-        <v>41.625999999999998</v>
+        <v>41.626000000000005</v>
       </c>
       <c r="M1054" s="72">
-        <v>26.966000000000001</v>
+        <v>26.965999999999998</v>
       </c>
       <c r="N1054" s="72">
         <v>49.402000000000001</v>
@@ -52148,7 +52148,7 @@
         <v>21.770000000000003</v>
       </c>
       <c r="M1055" s="72">
-        <v>27.632000000000001</v>
+        <v>27.631999999999998</v>
       </c>
       <c r="N1055" s="72">
         <v>24.795000000000002</v>
@@ -52262,10 +52262,10 @@
         <v>70</v>
       </c>
       <c r="K1058" s="72">
-        <v>38.303999999999995</v>
+        <v>38.304000000000002</v>
       </c>
       <c r="L1058" s="72">
-        <v>30.687999999999995</v>
+        <v>30.687999999999988</v>
       </c>
       <c r="M1058" s="72">
         <v>2.9779999999999998</v>
@@ -52306,16 +52306,16 @@
         <v>70</v>
       </c>
       <c r="K1059" s="72">
-        <v>62.035000000000004</v>
+        <v>62.034999999999997</v>
       </c>
       <c r="L1059" s="72">
-        <v>60.631999999999998</v>
+        <v>60.631999999999991</v>
       </c>
       <c r="M1059" s="72">
-        <v>8.3600000000000012</v>
+        <v>8.36</v>
       </c>
       <c r="N1059" s="72">
-        <v>122.667</v>
+        <v>122.66699999999999</v>
       </c>
     </row>
     <row r="1060" spans="1:14" x14ac:dyDescent="0.25">
@@ -52394,16 +52394,16 @@
         <v>70</v>
       </c>
       <c r="K1061" s="72">
-        <v>24.140999999999998</v>
+        <v>24.141000000000002</v>
       </c>
       <c r="L1061" s="72">
-        <v>34.222999999999992</v>
+        <v>34.222999999999999</v>
       </c>
       <c r="M1061" s="72">
-        <v>102.12299999999999</v>
+        <v>102.123</v>
       </c>
       <c r="N1061" s="72">
-        <v>58.36399999999999</v>
+        <v>58.364000000000004</v>
       </c>
     </row>
     <row r="1062" spans="1:14" x14ac:dyDescent="0.25">
@@ -52438,7 +52438,7 @@
         <v>70</v>
       </c>
       <c r="K1062" s="72">
-        <v>31.151999999999997</v>
+        <v>31.152000000000001</v>
       </c>
       <c r="L1062" s="72">
         <v>35.608999999999995</v>
@@ -52482,7 +52482,7 @@
         <v>70</v>
       </c>
       <c r="K1063" s="72">
-        <v>7.5739999999999998</v>
+        <v>7.5740000000000007</v>
       </c>
       <c r="L1063" s="72">
         <v>40.319000000000003</v>
@@ -52532,7 +52532,7 @@
         <v>21.103999999999999</v>
       </c>
       <c r="M1064" s="72">
-        <v>26.789000000000001</v>
+        <v>26.788999999999998</v>
       </c>
       <c r="N1064" s="72">
         <v>24</v>
@@ -52649,13 +52649,13 @@
         <v>38.125</v>
       </c>
       <c r="L1067" s="72">
-        <v>30.591999999999999</v>
+        <v>30.592000000000013</v>
       </c>
       <c r="M1067" s="72">
         <v>2.9710000000000001</v>
       </c>
       <c r="N1067" s="72">
-        <v>68.716999999999999</v>
+        <v>68.717000000000013</v>
       </c>
     </row>
     <row r="1068" spans="1:14" x14ac:dyDescent="0.25">
@@ -52737,13 +52737,13 @@
         <v>54.975999999999999</v>
       </c>
       <c r="L1069" s="72">
-        <v>80.532000000000039</v>
+        <v>80.531999999999982</v>
       </c>
       <c r="M1069" s="72">
         <v>41.579000000000001</v>
       </c>
       <c r="N1069" s="72">
-        <v>135.50800000000004</v>
+        <v>135.50799999999998</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.25">
@@ -52778,16 +52778,16 @@
         <v>70</v>
       </c>
       <c r="K1070" s="72">
-        <v>23.882999999999996</v>
+        <v>23.883000000000003</v>
       </c>
       <c r="L1070" s="72">
-        <v>34.048000000000009</v>
+        <v>34.047999999999995</v>
       </c>
       <c r="M1070" s="72">
-        <v>101.45999999999998</v>
+        <v>101.46000000000001</v>
       </c>
       <c r="N1070" s="72">
-        <v>57.931000000000004</v>
+        <v>57.930999999999997</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.25">
@@ -52822,16 +52822,16 @@
         <v>70</v>
       </c>
       <c r="K1071" s="72">
-        <v>30.565000000000001</v>
+        <v>30.564999999999998</v>
       </c>
       <c r="L1071" s="72">
-        <v>35.316000000000003</v>
+        <v>35.316000000000031</v>
       </c>
       <c r="M1071" s="72">
         <v>22.615000000000002</v>
       </c>
       <c r="N1071" s="72">
-        <v>65.881</v>
+        <v>65.881000000000029</v>
       </c>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.25">
@@ -53077,13 +53077,13 @@
         <v>59.965000000000003</v>
       </c>
       <c r="L1077" s="72">
-        <v>59.696999999999989</v>
+        <v>59.697000000000003</v>
       </c>
       <c r="M1077" s="72">
-        <v>8.179000000000002</v>
+        <v>8.1790000000000003</v>
       </c>
       <c r="N1077" s="72">
-        <v>119.66199999999999</v>
+        <v>119.66200000000001</v>
       </c>
     </row>
     <row r="1078" spans="1:14" x14ac:dyDescent="0.25">
@@ -57817,13 +57817,13 @@
         <v>51.084000000000003</v>
       </c>
       <c r="L1188" s="72">
-        <v>36.734000000000009</v>
+        <v>36.733999999999995</v>
       </c>
       <c r="M1188" s="72">
         <v>0</v>
       </c>
       <c r="N1188" s="72">
-        <v>87.818000000000012</v>
+        <v>87.817999999999998</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.25">
@@ -57858,16 +57858,16 @@
         <v>70</v>
       </c>
       <c r="K1189" s="72">
-        <v>12.334</v>
+        <v>12.334000000000001</v>
       </c>
       <c r="L1189" s="72">
-        <v>53.873000000000005</v>
+        <v>53.87299999999999</v>
       </c>
       <c r="M1189" s="72">
         <v>33.945000000000007</v>
       </c>
       <c r="N1189" s="72">
-        <v>66.207000000000008</v>
+        <v>66.206999999999994</v>
       </c>
     </row>
     <row r="1190" spans="1:14" x14ac:dyDescent="0.25">
@@ -57905,13 +57905,13 @@
         <v>3.899</v>
       </c>
       <c r="L1190" s="72">
-        <v>29.729999999999997</v>
+        <v>29.730000000000004</v>
       </c>
       <c r="M1190" s="72">
-        <v>36.477000000000004</v>
+        <v>36.476999999999997</v>
       </c>
       <c r="N1190" s="72">
-        <v>33.628999999999998</v>
+        <v>33.629000000000005</v>
       </c>
     </row>
     <row r="1191" spans="1:14" x14ac:dyDescent="0.25">
@@ -57949,7 +57949,7 @@
         <v>0</v>
       </c>
       <c r="M1191" s="72">
-        <v>33.628999999999998</v>
+        <v>33.629000000000005</v>
       </c>
       <c r="N1191" s="72">
         <v>0</v>
@@ -58072,7 +58072,7 @@
         <v>68.65300000000002</v>
       </c>
       <c r="M1194" s="72">
-        <v>5.657</v>
+        <v>5.6570000000000009</v>
       </c>
       <c r="N1194" s="72">
         <v>141.01600000000002</v>
@@ -58113,13 +58113,13 @@
         <v>35.599000000000004</v>
       </c>
       <c r="L1195" s="72">
-        <v>78.95</v>
+        <v>78.949999999999989</v>
       </c>
       <c r="M1195" s="72">
-        <v>62.066000000000003</v>
+        <v>62.065999999999995</v>
       </c>
       <c r="N1195" s="72">
-        <v>114.54900000000001</v>
+        <v>114.54899999999999</v>
       </c>
     </row>
     <row r="1196" spans="1:14" x14ac:dyDescent="0.25">
@@ -58157,13 +58157,13 @@
         <v>19.396999999999998</v>
       </c>
       <c r="L1196" s="72">
-        <v>27.085000000000001</v>
+        <v>27.085000000000008</v>
       </c>
       <c r="M1196" s="72">
         <v>87.463999999999999</v>
       </c>
       <c r="N1196" s="72">
-        <v>46.481999999999999</v>
+        <v>46.482000000000006</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.25">
@@ -58198,16 +58198,16 @@
         <v>70</v>
       </c>
       <c r="K1197" s="72">
-        <v>45.925999999999995</v>
+        <v>45.926000000000002</v>
       </c>
       <c r="L1197" s="72">
-        <v>30.052000000000014</v>
+        <v>30.051999999999992</v>
       </c>
       <c r="M1197" s="72">
         <v>16.43</v>
       </c>
       <c r="N1197" s="72">
-        <v>75.978000000000009</v>
+        <v>75.977999999999994</v>
       </c>
     </row>
     <row r="1198" spans="1:14" x14ac:dyDescent="0.25">
@@ -58248,7 +58248,7 @@
         <v>45.265999999999991</v>
       </c>
       <c r="M1198" s="72">
-        <v>30.712000000000003</v>
+        <v>30.712</v>
       </c>
       <c r="N1198" s="72">
         <v>55.870999999999995</v>
@@ -58453,13 +58453,13 @@
         <v>71.113</v>
       </c>
       <c r="L1203" s="72">
-        <v>67.889999999999986</v>
+        <v>67.890000000000043</v>
       </c>
       <c r="M1203" s="72">
-        <v>5.5939999999999994</v>
+        <v>5.5940000000000012</v>
       </c>
       <c r="N1203" s="72">
-        <v>139.00299999999999</v>
+        <v>139.00300000000004</v>
       </c>
     </row>
     <row r="1204" spans="1:14" x14ac:dyDescent="0.25">
@@ -58500,7 +58500,7 @@
         <v>77.907000000000011</v>
       </c>
       <c r="M1204" s="72">
-        <v>61.095999999999997</v>
+        <v>61.096000000000004</v>
       </c>
       <c r="N1204" s="72">
         <v>113.05600000000001</v>
@@ -58538,10 +58538,10 @@
         <v>70</v>
       </c>
       <c r="K1205" s="72">
-        <v>18.534999999999997</v>
+        <v>18.535</v>
       </c>
       <c r="L1205" s="72">
-        <v>26.680000000000007</v>
+        <v>26.680000000000003</v>
       </c>
       <c r="M1205" s="72">
         <v>86.376000000000005</v>
@@ -58626,16 +58626,16 @@
         <v>70</v>
       </c>
       <c r="K1207" s="72">
-        <v>10.309000000000001</v>
+        <v>10.308999999999999</v>
       </c>
       <c r="L1207" s="72">
         <v>43.861000000000004</v>
       </c>
       <c r="M1207" s="72">
-        <v>30.132999999999996</v>
+        <v>30.132999999999999</v>
       </c>
       <c r="N1207" s="72">
-        <v>54.170000000000009</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="1208" spans="1:14" x14ac:dyDescent="0.25">
@@ -58673,13 +58673,13 @@
         <v>2.96</v>
       </c>
       <c r="L1208" s="72">
-        <v>24.352</v>
+        <v>24.351999999999997</v>
       </c>
       <c r="M1208" s="72">
         <v>29.818000000000001</v>
       </c>
       <c r="N1208" s="72">
-        <v>27.312000000000001</v>
+        <v>27.311999999999998</v>
       </c>
     </row>
     <row r="1209" spans="1:14" x14ac:dyDescent="0.25">
@@ -58717,7 +58717,7 @@
         <v>0</v>
       </c>
       <c r="M1209" s="72">
-        <v>27.312000000000001</v>
+        <v>27.311999999999998</v>
       </c>
       <c r="N1209" s="72">
         <v>0</v>
@@ -58837,13 +58837,13 @@
         <v>70.615000000000009</v>
       </c>
       <c r="L1212" s="72">
-        <v>67.625999999999976</v>
+        <v>67.626000000000005</v>
       </c>
       <c r="M1212" s="72">
         <v>5.572000000000001</v>
       </c>
       <c r="N1212" s="72">
-        <v>138.24099999999999</v>
+        <v>138.24100000000001</v>
       </c>
     </row>
     <row r="1213" spans="1:14" x14ac:dyDescent="0.25">
@@ -58922,10 +58922,10 @@
         <v>70</v>
       </c>
       <c r="K1214" s="72">
-        <v>18.332999999999998</v>
+        <v>18.333000000000002</v>
       </c>
       <c r="L1214" s="72">
-        <v>26.509</v>
+        <v>26.508999999999997</v>
       </c>
       <c r="M1214" s="72">
         <v>85.829000000000008</v>
@@ -59177,13 +59177,13 @@
         <v>39.234999999999999</v>
       </c>
       <c r="L1220" s="72">
-        <v>32.827999999999989</v>
+        <v>32.828000000000003</v>
       </c>
       <c r="M1220" s="72">
         <v>3.0939999999999999</v>
       </c>
       <c r="N1220" s="72">
-        <v>72.062999999999988</v>
+        <v>72.063000000000002</v>
       </c>
     </row>
     <row r="1221" spans="1:14" x14ac:dyDescent="0.25">
@@ -66105,13 +66105,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999983</v>
+        <v>258.13925000000012</v>
       </c>
       <c r="H6" s="72">
         <v>420</v>
       </c>
       <c r="I6" s="76">
-        <v>0.61461726190476151</v>
+        <v>0.61461726190476218</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -66134,13 +66134,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999965</v>
+        <v>46.93024999999998</v>
       </c>
       <c r="H7" s="72">
         <v>420</v>
       </c>
       <c r="I7" s="76">
-        <v>0.11173869047619039</v>
+        <v>0.11173869047619042</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -66221,13 +66221,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999986</v>
+        <v>296.44325000000026</v>
       </c>
       <c r="H10" s="72">
         <v>420</v>
       </c>
       <c r="I10" s="76">
-        <v>0.70581726190476157</v>
+        <v>0.70581726190476257</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -66250,13 +66250,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000021</v>
+        <v>76.063999999999993</v>
       </c>
       <c r="H11" s="72">
         <v>420</v>
       </c>
       <c r="I11" s="76">
-        <v>0.18110476190476196</v>
+        <v>0.18110476190476188</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -66395,13 +66395,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>359.22424999999987</v>
+        <v>359.22425000000038</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85529583333333303</v>
+        <v>0.85529583333333425</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -66424,13 +66424,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>119.00424999999998</v>
+        <v>119.00425000000013</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28334345238095232</v>
+        <v>0.28334345238095271</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -66453,13 +66453,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999991</v>
+        <v>40.899999999999984</v>
       </c>
       <c r="H18" s="72">
         <v>210</v>
       </c>
       <c r="I18" s="76">
-        <v>0.19476190476190472</v>
+        <v>0.19476190476190469</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -66482,13 +66482,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000043</v>
+        <v>50.377999999999993</v>
       </c>
       <c r="H19" s="72">
         <v>210</v>
       </c>
       <c r="I19" s="76">
-        <v>0.2398952380952383</v>
+        <v>0.23989523809523805</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -66511,13 +66511,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>103.20675000000003</v>
+        <v>103.2067500000001</v>
       </c>
       <c r="H20" s="72">
         <v>210</v>
       </c>
       <c r="I20" s="76">
-        <v>0.49146071428571442</v>
+        <v>0.49146071428571475</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -66540,13 +66540,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>80.989750000000029</v>
+        <v>80.989750000000043</v>
       </c>
       <c r="H21" s="72">
         <v>210</v>
       </c>
       <c r="I21" s="76">
-        <v>0.38566547619047631</v>
+        <v>0.38566547619047642</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -66627,13 +66627,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999938</v>
+        <v>61.135749999999994</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761877</v>
+        <v>0.29112261904761905</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -66801,13 +66801,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>178.53649999999999</v>
+        <v>178.53649999999982</v>
       </c>
       <c r="H30" s="72">
         <v>210</v>
       </c>
       <c r="I30" s="76">
-        <v>0.8501738095238095</v>
+        <v>0.85017380952380861</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -66830,13 +66830,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>126.28975000000005</v>
+        <v>126.28975000000011</v>
       </c>
       <c r="H31" s="72">
         <v>210</v>
       </c>
       <c r="I31" s="76">
-        <v>0.60137976190476217</v>
+        <v>0.60137976190476239</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -66859,13 +66859,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>109.67724999999997</v>
+        <v>109.67725000000004</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.5222726190476189</v>
+        <v>0.52227261904761924</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -66888,13 +66888,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>183.52399999999997</v>
+        <v>183.52400000000014</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.87392380952380944</v>
+        <v>0.87392380952381021</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -66917,13 +66917,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>579.95299999999952</v>
+        <v>579.95299999999827</v>
       </c>
       <c r="H34" s="72">
         <v>630</v>
       </c>
       <c r="I34" s="76">
-        <v>0.92056031746031675</v>
+        <v>0.92056031746031475</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -66946,13 +66946,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>214.09049999999999</v>
+        <v>214.09049999999996</v>
       </c>
       <c r="H35" s="72">
         <v>630</v>
       </c>
       <c r="I35" s="76">
-        <v>0.33982619047619045</v>
+        <v>0.33982619047619039</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -66975,13 +66975,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>85.914250000000123</v>
+        <v>85.914250000000109</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.40911547619047678</v>
+        <v>0.40911547619047672</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -67033,13 +67033,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>135.41724999999991</v>
+        <v>135.41724999999997</v>
       </c>
       <c r="H38" s="72">
         <v>210</v>
       </c>
       <c r="I38" s="76">
-        <v>0.64484404761904723</v>
+        <v>0.64484404761904746</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -67062,13 +67062,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>113.46575000000017</v>
+        <v>113.46575000000003</v>
       </c>
       <c r="H39" s="72">
         <v>210</v>
       </c>
       <c r="I39" s="76">
-        <v>0.54031309523809601</v>
+        <v>0.54031309523809534</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -67091,13 +67091,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>43.96725</v>
+        <v>43.967249999999979</v>
       </c>
       <c r="H40" s="72">
         <v>210</v>
       </c>
       <c r="I40" s="76">
-        <v>0.20936785714285713</v>
+        <v>0.20936785714285705</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -67120,13 +67120,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>63.393749999999997</v>
+        <v>63.393750000000011</v>
       </c>
       <c r="H41" s="72">
         <v>210</v>
       </c>
       <c r="I41" s="76">
-        <v>0.301875</v>
+        <v>0.30187500000000006</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -67207,13 +67207,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>64.462500000000077</v>
+        <v>64.462500000000048</v>
       </c>
       <c r="H44" s="72">
         <v>210</v>
       </c>
       <c r="I44" s="76">
-        <v>0.30696428571428608</v>
+        <v>0.30696428571428597</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -67236,13 +67236,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>38.313249999999996</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H45" s="72">
         <v>210</v>
       </c>
       <c r="I45" s="76">
-        <v>0.18244404761904759</v>
+        <v>0.18244404761904764</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -67294,13 +67294,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>282.65450000000021</v>
+        <v>282.65449999999998</v>
       </c>
       <c r="H47" s="72">
         <v>420</v>
       </c>
       <c r="I47" s="76">
-        <v>0.67298690476190526</v>
+        <v>0.6729869047619047</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -67323,13 +67323,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>115.17525000000006</v>
+        <v>115.17525000000003</v>
       </c>
       <c r="H48" s="72">
         <v>210</v>
       </c>
       <c r="I48" s="76">
-        <v>0.54845357142857176</v>
+        <v>0.54845357142857154</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -67352,13 +67352,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>135.0377500000001</v>
+        <v>135.03775000000002</v>
       </c>
       <c r="H49" s="72">
         <v>210</v>
       </c>
       <c r="I49" s="76">
-        <v>0.64303690476190523</v>
+        <v>0.64303690476190489</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -67381,13 +67381,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>271.35049999999995</v>
+        <v>271.35049999999984</v>
       </c>
       <c r="H50" s="72">
         <v>420</v>
       </c>
       <c r="I50" s="76">
-        <v>0.64607261904761892</v>
+        <v>0.6460726190476187</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -67410,13 +67410,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>376.78800000000001</v>
+        <v>376.78800000000012</v>
       </c>
       <c r="H51" s="72">
         <v>420</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89711428571428575</v>
+        <v>0.89711428571428598</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -67439,13 +67439,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>302.6579999999995</v>
+        <v>302.6579999999999</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.48040952380952301</v>
+        <v>0.48040952380952368</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -67468,13 +67468,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>381.88449999999983</v>
+        <v>381.88449999999972</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.60616587301587277</v>
+        <v>0.60616587301587255</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -67555,13 +67555,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>128.22174999999999</v>
+        <v>128.22175000000001</v>
       </c>
       <c r="H56" s="72">
         <v>210</v>
       </c>
       <c r="I56" s="76">
-        <v>0.61057976190476182</v>
+        <v>0.61057976190476193</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -67584,13 +67584,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>166.96599999999967</v>
+        <v>166.96600000000009</v>
       </c>
       <c r="H57" s="72">
         <v>210</v>
       </c>
       <c r="I57" s="76">
-        <v>0.79507619047618894</v>
+        <v>0.79507619047619094</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -67671,13 +67671,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>126.1305000000001</v>
+        <v>126.13049999999997</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.60062142857142908</v>
+        <v>0.60062142857142842</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -67700,13 +67700,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>79.264000000000038</v>
+        <v>79.263999999999967</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.37744761904761925</v>
+        <v>0.37744761904761887</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -67787,13 +67787,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>207.82500000000007</v>
+        <v>207.82499999999993</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.98964285714285749</v>
+        <v>0.98964285714285682</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -67816,13 +67816,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>99.127750000000063</v>
+        <v>99.127750000000034</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.47203690476190507</v>
+        <v>0.47203690476190491</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -67845,13 +67845,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>71.546750000000003</v>
+        <v>71.546749999999989</v>
       </c>
       <c r="H66" s="72">
         <v>210</v>
       </c>
       <c r="I66" s="76">
-        <v>0.34069880952380954</v>
+        <v>0.34069880952380949</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -67874,13 +67874,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>110.01474999999991</v>
+        <v>110.01475000000003</v>
       </c>
       <c r="H67" s="72">
         <v>210</v>
       </c>
       <c r="I67" s="76">
-        <v>0.52387976190476149</v>
+        <v>0.52387976190476204</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -67961,7 +67961,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>234.00174999999987</v>
+        <v>234.0017499999999</v>
       </c>
       <c r="H70" s="72">
         <v>420</v>
@@ -67990,13 +67990,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>152.06025000000005</v>
+        <v>152.06025000000014</v>
       </c>
       <c r="H71" s="72">
         <v>420</v>
       </c>
       <c r="I71" s="76">
-        <v>0.36204821428571443</v>
+        <v>0.3620482142857146</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -68019,13 +68019,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000033</v>
+        <v>45.395250000000026</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.2161678571428573</v>
+        <v>0.21616785714285727</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -68048,13 +68048,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000011</v>
+        <v>56.67799999999999</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523813</v>
+        <v>0.26989523809523802</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -68193,13 +68193,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477749999999986</v>
+        <v>54.477750000000007</v>
       </c>
       <c r="H78" s="72">
         <v>210</v>
       </c>
       <c r="I78" s="76">
-        <v>0.25941785714285709</v>
+        <v>0.2594178571428572</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -68222,13 +68222,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.890000000000022</v>
+        <v>35.890000000000036</v>
       </c>
       <c r="H79" s="72">
         <v>210</v>
       </c>
       <c r="I79" s="76">
-        <v>0.170904761904762</v>
+        <v>0.17090476190476209</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -68309,13 +68309,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999998</v>
+        <v>192.11725000000001</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904758</v>
+        <v>0.9148440476190477</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -68338,13 +68338,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000004</v>
+        <v>86.18675000000006</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809527</v>
+        <v>0.41041309523809555</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -68367,13 +68367,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000006</v>
+        <v>168.25125000000003</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142881</v>
+        <v>0.8011964285714287</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -68396,13 +68396,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000021</v>
+        <v>40.552000000000007</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.193104761904762</v>
+        <v>0.19310476190476195</v>
       </c>
     </row>
   </sheetData>
